--- a/public/data/soil/soil_table_nigeria.xlsx
+++ b/public/data/soil/soil_table_nigeria.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2167.5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2167.5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25256.4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>32513.4</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3148,7 +3148,7 @@
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>10851.4</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>17091.9</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>37</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>7614.4</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>15626.3</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -3288,13 +3288,13 @@
         <v>39</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>19394.9</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>7976.2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>17858.6</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8062.1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -3358,13 +3358,13 @@
         <v>41</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>12693.8</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2167.5</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>42</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2224.2</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -3428,13 +3428,13 @@
         <v>43</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>11388.2</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2446.1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>44</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>11671.2</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -3498,13 +3498,13 @@
         <v>45</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3271.3</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>25638</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -3533,7 +3533,7 @@
         <v>46</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>10940.9</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>47</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>10661.4</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>47629.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -3644,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3947.3</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>90277.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -3673,16 +3673,16 @@
         <v>51</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>896.2</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1403.8</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>30783.4</v>
       </c>
       <c r="H21" t="n">
         <v>2.57</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>44936.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>31869.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>39717.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58644.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -3854,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>4287.6</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>37034.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -3892,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>34103.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>49865.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>27641.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>54126.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>35353.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>35934.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>11656.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>25928.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>37384.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>53504.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -4239,10 +4239,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>3074.4</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>8688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2503.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>15587.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -4338,7 +4338,7 @@
         <v>71</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>18879.6</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -4373,13 +4373,13 @@
         <v>72</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>4006.1</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1012.4</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -4408,7 +4408,7 @@
         <v>73</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>10415.2</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>74</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>9739.8</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>75</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>9529.8</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4513,7 +4513,7 @@
         <v>76</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>18285.5</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>77</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>9430.9</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4583,7 +4583,7 @@
         <v>78</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>8524.1</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -4618,7 +4618,7 @@
         <v>79</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>6506.4</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -4653,7 +4653,7 @@
         <v>80</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>22680</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -4688,7 +4688,7 @@
         <v>81</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>6047.4</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>82</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>16236.8</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -4758,7 +4758,7 @@
         <v>83</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>11406.3</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>84</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>6535.8</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -4828,7 +4828,7 @@
         <v>85</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>21595.7</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -4863,7 +4863,7 @@
         <v>86</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>18779.1</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -4898,7 +4898,7 @@
         <v>87</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>7391.5</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -4933,7 +4933,7 @@
         <v>88</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>21721.8</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -4968,7 +4968,7 @@
         <v>89</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>6291.8</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>90</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>12825.4</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -5038,7 +5038,7 @@
         <v>91</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>6180.3</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -5073,7 +5073,7 @@
         <v>92</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>9622.1</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>93</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>19384.3</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -5143,7 +5143,7 @@
         <v>94</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>5627.9</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -5178,13 +5178,13 @@
         <v>95</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1393</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>859.4</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -5213,7 +5213,7 @@
         <v>96</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>31481.9</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -5248,7 +5248,7 @@
         <v>97</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1393</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -5283,7 +5283,7 @@
         <v>98</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>21380.5</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -5318,7 +5318,7 @@
         <v>99</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>20832.9</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -5353,7 +5353,7 @@
         <v>100</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>12537</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -5388,13 +5388,13 @@
         <v>101</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>9903.5</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>3383.5</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         <v>103</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>18784.2</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>36147</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>40715.8</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -5528,7 +5528,7 @@
         <v>106</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>9739</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>18072</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -5598,13 +5598,13 @@
         <v>108</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>4745.7</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>10903.4</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -5639,10 +5639,10 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>15454.8</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>23859.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5674,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>10155.5</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>10057.6</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -5738,13 +5738,13 @@
         <v>112</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>5112</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>4641.6</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -5773,13 +5773,13 @@
         <v>113</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>5112</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>14706.2</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -5808,13 +5808,13 @@
         <v>114</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>9784.4</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>9868.1</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>5190.5</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>10064.6</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -5913,13 +5913,13 @@
         <v>117</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>10004.1</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>10072.5</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -5948,13 +5948,13 @@
         <v>118</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>17511.4</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>9604.2</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -5989,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>3482</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -6024,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>3482</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -6053,13 +6053,13 @@
         <v>121</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>20556.8</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>10622.7</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -6088,13 +6088,13 @@
         <v>122</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>10293.9</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>8531.6</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>19250.2</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -6167,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>136543.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>148891.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>26127</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>71548.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6307,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>124341.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>26297.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>148915.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6412,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>164128.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6447,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>54434.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6482,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>108550.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>57181.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>156665.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>78583.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>90044.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6657,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>186641.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>70838.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6727,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>119689.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>167165.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>30876.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6832,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>83246.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6858,13 +6858,13 @@
         <v>145</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>6362.6</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>2080.1</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -6893,13 +6893,13 @@
         <v>146</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>4882.9</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>137.5</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>147</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>8444.8</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -6963,13 +6963,13 @@
         <v>148</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>3927.4</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>287.3</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -6998,7 +6998,7 @@
         <v>149</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>15513.1</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -7033,13 +7033,13 @@
         <v>150</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>14706</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>738.9</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -7068,13 +7068,13 @@
         <v>151</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>6742.8</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>305.3</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>152</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>28516.2</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -7144,10 +7144,10 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>47723.8</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>23065.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7179,10 +7179,10 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>2042.5</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>66334.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7217,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>49507.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7252,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>115893.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7287,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>131906.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>121108.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>133717.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>66112.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7424,10 +7424,10 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>36354.8</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>81874.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7459,10 +7459,10 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>20943.9</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>86005.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -7488,16 +7488,16 @@
         <v>164</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>14824.7</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>86482.2</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>20126.7</v>
       </c>
       <c r="H130" t="n">
         <v>7.236</v>
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>85245.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -7567,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>50743.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>32002.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -7628,16 +7628,16 @@
         <v>168</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>14129.4</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>36602.3</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>10810.3</v>
       </c>
       <c r="H134" t="n">
         <v>58.659</v>
@@ -7672,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>52660.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -7704,10 +7704,10 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>29066.5</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>47794.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -7739,10 +7739,10 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>25597.8</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>28044.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>110738.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>36347.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -7847,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>91356.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -7879,10 +7879,10 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>23610.4</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>64262.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -7914,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>67820.2</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>14870.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>107007</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>175071.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>71750.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>148370.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -8127,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>52270.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -8162,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>255806.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -8197,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>37702.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -8232,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>36343.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>20138.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -8302,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>178123.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -8337,7 +8337,7 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>104884.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>44750.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>118951</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -8442,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>8413.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -8477,7 +8477,7 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>239491.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>20440.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>55605.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -8582,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>54806.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -8617,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>65044.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>72440.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>6699</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>57763.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>48239.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>23212.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -8827,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>16843.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>47708.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -8897,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>75317.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>19740.6</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -8958,7 +8958,7 @@
         <v>208</v>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>187710.6</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
@@ -8993,13 +8993,13 @@
         <v>209</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>50038.6</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>5303.7</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -9028,13 +9028,13 @@
         <v>210</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>7965.8</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>1169.6</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -9063,13 +9063,13 @@
         <v>211</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>4923.1</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>24800.6</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -9098,13 +9098,13 @@
         <v>212</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>80547</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>7197.6</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -9133,13 +9133,13 @@
         <v>213</v>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>129549.3</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>5052.2</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -9168,13 +9168,13 @@
         <v>214</v>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>8267.1</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>3739.2</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
@@ -9203,13 +9203,13 @@
         <v>215</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>3350.7</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>859.4</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -9238,7 +9238,7 @@
         <v>216</v>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>53819.2</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
@@ -9273,13 +9273,13 @@
         <v>217</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>126798.3</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>21266.9</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -9308,13 +9308,13 @@
         <v>218</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>43556.3</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>9446.9</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -9343,13 +9343,13 @@
         <v>219</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>27600.8</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>53953.4</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -9378,13 +9378,13 @@
         <v>220</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>29849.1</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>14364.8</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -9413,13 +9413,13 @@
         <v>221</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>85002.1</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>6067.7</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
@@ -9448,16 +9448,16 @@
         <v>222</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>25449.6</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>66752.3</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>5007.7</v>
       </c>
       <c r="H186" t="n">
         <v>55.808</v>
@@ -9483,13 +9483,13 @@
         <v>223</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>34869</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>27838.2</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -9524,10 +9524,10 @@
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>103769.9</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>24461.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -9559,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>24825.2</v>
       </c>
       <c r="G189" t="n">
         <v>0</v>
@@ -9588,13 +9588,13 @@
         <v>227</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>17228</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>20719</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
@@ -9623,7 +9623,7 @@
         <v>228</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>1822.7</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
@@ -9658,13 +9658,13 @@
         <v>229</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>5309.5</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>79.2</v>
       </c>
       <c r="G192" t="n">
         <v>0</v>
@@ -9693,13 +9693,13 @@
         <v>230</v>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>19459.1</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>3542.7</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>231</v>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>18853.5</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
@@ -9769,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>27401</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
@@ -9798,13 +9798,13 @@
         <v>233</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>7058</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>23377.5</v>
       </c>
       <c r="G196" t="n">
         <v>0</v>
@@ -9833,13 +9833,13 @@
         <v>234</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>23998.8</v>
       </c>
       <c r="E197" t="n">
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>2756.3</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
@@ -9868,13 +9868,13 @@
         <v>235</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>17998.4</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>5946.3</v>
       </c>
       <c r="G198" t="n">
         <v>0</v>
@@ -9903,13 +9903,13 @@
         <v>236</v>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>42544.6</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>15920.9</v>
       </c>
       <c r="G199" t="n">
         <v>0</v>
@@ -9938,13 +9938,13 @@
         <v>237</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>32703.4</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>6652.5</v>
       </c>
       <c r="G200" t="n">
         <v>0</v>
@@ -9973,7 +9973,7 @@
         <v>238</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>14510.2</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
@@ -10014,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>28032.8</v>
       </c>
       <c r="G202" t="n">
         <v>0</v>
@@ -10043,13 +10043,13 @@
         <v>240</v>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>8990.4</v>
       </c>
       <c r="E203" t="n">
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
+        <v>2841.6</v>
       </c>
       <c r="G203" t="n">
         <v>0</v>
@@ -10078,7 +10078,7 @@
         <v>241</v>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>5124.7</v>
       </c>
       <c r="E204" t="n">
         <v>0</v>
@@ -10113,7 +10113,7 @@
         <v>242</v>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>11862</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
@@ -10148,7 +10148,7 @@
         <v>243</v>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>6884.7</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
@@ -10183,13 +10183,13 @@
         <v>244</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>47472.6</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>1837.7</v>
       </c>
       <c r="G207" t="n">
         <v>0</v>
@@ -10218,7 +10218,7 @@
         <v>245</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>24147.7</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
@@ -10253,13 +10253,13 @@
         <v>246</v>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>18517.7</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>2207.5</v>
       </c>
       <c r="G209" t="n">
         <v>0</v>
@@ -10288,7 +10288,7 @@
         <v>247</v>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>7373.1</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
@@ -10323,7 +10323,7 @@
         <v>248</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>5146.6</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
@@ -10358,13 +10358,13 @@
         <v>249</v>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>5277.6</v>
       </c>
       <c r="E212" t="n">
         <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>670.5</v>
       </c>
       <c r="G212" t="n">
         <v>0</v>
@@ -10393,13 +10393,13 @@
         <v>250</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>3235.9</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>776</v>
       </c>
       <c r="G213" t="n">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>17075.6</v>
       </c>
       <c r="G214" t="n">
         <v>0</v>
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>15806</v>
       </c>
       <c r="G215" t="n">
         <v>0</v>
@@ -10498,13 +10498,13 @@
         <v>254</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>1758.6</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>16195.8</v>
       </c>
       <c r="G216" t="n">
         <v>0</v>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>11803.1</v>
       </c>
       <c r="G217" t="n">
         <v>0</v>
@@ -10574,7 +10574,7 @@
         <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>11085.2</v>
       </c>
       <c r="G218" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>0</v>
+        <v>10477.4</v>
       </c>
       <c r="G219" t="n">
         <v>0</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>21566.6</v>
       </c>
       <c r="G220" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>16550.5</v>
       </c>
       <c r="G221" t="n">
         <v>0</v>
@@ -10714,7 +10714,7 @@
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>9195.4</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>38406</v>
       </c>
       <c r="G223" t="n">
         <v>0</v>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>18253.4</v>
       </c>
       <c r="G224" t="n">
         <v>0</v>
@@ -10819,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>23805.5</v>
       </c>
       <c r="G225" t="n">
         <v>0</v>
@@ -10854,7 +10854,7 @@
         <v>0</v>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>19676.7</v>
       </c>
       <c r="G226" t="n">
         <v>0</v>
@@ -10889,10 +10889,10 @@
         <v>0</v>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>5252.3</v>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>35613</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -10918,13 +10918,13 @@
         <v>266</v>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>1242.4</v>
       </c>
       <c r="E228" t="n">
         <v>0</v>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>894.3</v>
       </c>
       <c r="G228" t="n">
         <v>0</v>
@@ -10959,7 +10959,7 @@
         <v>0</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>8761.6</v>
       </c>
       <c r="G229" t="n">
         <v>0</v>
@@ -10994,10 +10994,10 @@
         <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>6489</v>
       </c>
       <c r="G230" t="n">
-        <v>0</v>
+        <v>3837.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -11023,16 +11023,16 @@
         <v>269</v>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>4736</v>
       </c>
       <c r="E231" t="n">
         <v>0</v>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>24365.8</v>
       </c>
       <c r="G231" t="n">
-        <v>0</v>
+        <v>3752.5</v>
       </c>
       <c r="H231" t="n">
         <v>41.339</v>
@@ -11058,13 +11058,13 @@
         <v>270</v>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>2116.2</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>13368.5</v>
       </c>
       <c r="G232" t="n">
         <v>0</v>
@@ -11099,10 +11099,10 @@
         <v>0</v>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>1454.9</v>
       </c>
       <c r="G233" t="n">
-        <v>0</v>
+        <v>12447.3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -11134,10 +11134,10 @@
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>1771.8</v>
       </c>
       <c r="G234" t="n">
-        <v>0</v>
+        <v>18677.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>0</v>
+        <v>22751.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -11198,13 +11198,13 @@
         <v>274</v>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>6822</v>
       </c>
       <c r="E236" t="n">
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>3714.4</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -11233,16 +11233,16 @@
         <v>275</v>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>18995.7</v>
       </c>
       <c r="E237" t="n">
         <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>894.3</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>1136.5</v>
       </c>
       <c r="H237" t="n">
         <v>140.719</v>
@@ -11268,13 +11268,13 @@
         <v>276</v>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>9357.9</v>
       </c>
       <c r="E238" t="n">
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>894.3</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
@@ -11303,13 +11303,13 @@
         <v>277</v>
       </c>
       <c r="D239" t="n">
-        <v>0</v>
+        <v>53317.3</v>
       </c>
       <c r="E239" t="n">
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>15471.1</v>
       </c>
       <c r="G239" t="n">
         <v>0</v>
@@ -11338,13 +11338,13 @@
         <v>278</v>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>38729.1</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>3013.2</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>279</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>45927.1</v>
       </c>
       <c r="E241" t="n">
         <v>0</v>
@@ -11411,13 +11411,13 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
+        <v>1537.4</v>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>12029.6</v>
       </c>
       <c r="G242" t="n">
-        <v>0</v>
+        <v>21162</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -11443,16 +11443,16 @@
         <v>281</v>
       </c>
       <c r="D243" t="n">
-        <v>0</v>
+        <v>9500.7</v>
       </c>
       <c r="E243" t="n">
-        <v>0</v>
+        <v>1537.4</v>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>12458.3</v>
       </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>3345.2</v>
       </c>
       <c r="H243" t="n">
         <v>28.439</v>
@@ -11478,16 +11478,16 @@
         <v>282</v>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>24551.5</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>16460.5</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>1136.5</v>
       </c>
       <c r="H244" t="n">
         <v>99.901</v>
@@ -11519,7 +11519,7 @@
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>11839.8</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -11554,7 +11554,7 @@
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>12273.6</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
@@ -11583,13 +11583,13 @@
         <v>286</v>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>8719.1</v>
       </c>
       <c r="E247" t="n">
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>16699.7</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -11624,10 +11624,10 @@
         <v>0</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>26994.4</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>3838.7</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>24701</v>
       </c>
       <c r="G249" t="n">
         <v>0</v>
@@ -11688,16 +11688,16 @@
         <v>289</v>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>11419.4</v>
       </c>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>3877.8</v>
       </c>
       <c r="F250" t="n">
         <v>0</v>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>7603.6</v>
       </c>
       <c r="H250" t="n">
         <v>25.513</v>
@@ -11723,16 +11723,16 @@
         <v>290</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>15991.6</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>11646.6</v>
       </c>
       <c r="G251" t="n">
-        <v>0</v>
+        <v>3946.3</v>
       </c>
       <c r="H251" t="n">
         <v>28.533</v>
@@ -11764,7 +11764,7 @@
         <v>0</v>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
+        <v>24205.1</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
@@ -11799,7 +11799,7 @@
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>46202.5</v>
       </c>
       <c r="G253" t="n">
         <v>0</v>
@@ -11834,7 +11834,7 @@
         <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>7903.9</v>
       </c>
       <c r="G254" t="n">
         <v>0</v>
@@ -11863,13 +11863,13 @@
         <v>294</v>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>12109.4</v>
       </c>
       <c r="E255" t="n">
         <v>0</v>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>36014.1</v>
       </c>
       <c r="G255" t="n">
         <v>0</v>
@@ -11904,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>7794.6</v>
       </c>
       <c r="G256" t="n">
         <v>0</v>
@@ -11939,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>31500.1</v>
       </c>
       <c r="G257" t="n">
         <v>0</v>
@@ -11968,7 +11968,7 @@
         <v>297</v>
       </c>
       <c r="D258" t="n">
-        <v>0</v>
+        <v>18614.8</v>
       </c>
       <c r="E258" t="n">
         <v>0</v>
@@ -11977,7 +11977,7 @@
         <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>0</v>
+        <v>3761.1</v>
       </c>
       <c r="H258" t="n">
         <v>98.752</v>
@@ -12009,7 +12009,7 @@
         <v>0</v>
       </c>
       <c r="F259" t="n">
-        <v>0</v>
+        <v>14762.6</v>
       </c>
       <c r="G259" t="n">
         <v>0</v>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="F260" t="n">
-        <v>0</v>
+        <v>25484.4</v>
       </c>
       <c r="G260" t="n">
         <v>0</v>
@@ -12079,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="F261" t="n">
-        <v>0</v>
+        <v>38891.5</v>
       </c>
       <c r="G261" t="n">
         <v>0</v>
@@ -12108,13 +12108,13 @@
         <v>302</v>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>12379.7</v>
       </c>
       <c r="E262" t="n">
         <v>0</v>
       </c>
       <c r="F262" t="n">
-        <v>0</v>
+        <v>33723.1</v>
       </c>
       <c r="G262" t="n">
         <v>0</v>
@@ -12149,7 +12149,7 @@
         <v>0</v>
       </c>
       <c r="F263" t="n">
-        <v>0</v>
+        <v>23116.9</v>
       </c>
       <c r="G263" t="n">
         <v>0</v>
@@ -12184,7 +12184,7 @@
         <v>0</v>
       </c>
       <c r="F264" t="n">
-        <v>0</v>
+        <v>16644.3</v>
       </c>
       <c r="G264" t="n">
         <v>0</v>
@@ -12219,7 +12219,7 @@
         <v>0</v>
       </c>
       <c r="F265" t="n">
-        <v>0</v>
+        <v>10411.6</v>
       </c>
       <c r="G265" t="n">
         <v>0</v>
@@ -12254,10 +12254,10 @@
         <v>0</v>
       </c>
       <c r="F266" t="n">
-        <v>0</v>
+        <v>53593.7</v>
       </c>
       <c r="G266" t="n">
-        <v>0</v>
+        <v>7139</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -12283,13 +12283,13 @@
         <v>307</v>
       </c>
       <c r="D267" t="n">
-        <v>0</v>
+        <v>11342.6</v>
       </c>
       <c r="E267" t="n">
         <v>0</v>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
+        <v>36076.8</v>
       </c>
       <c r="G267" t="n">
         <v>0</v>
@@ -12318,13 +12318,13 @@
         <v>308</v>
       </c>
       <c r="D268" t="n">
-        <v>0</v>
+        <v>15903.8</v>
       </c>
       <c r="E268" t="n">
         <v>0</v>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>17391.2</v>
       </c>
       <c r="G268" t="n">
         <v>0</v>
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="F269" t="n">
-        <v>0</v>
+        <v>13312.8</v>
       </c>
       <c r="G269" t="n">
         <v>0</v>
@@ -12388,16 +12388,16 @@
         <v>310</v>
       </c>
       <c r="D270" t="n">
-        <v>0</v>
+        <v>5316.5</v>
       </c>
       <c r="E270" t="n">
         <v>0</v>
       </c>
       <c r="F270" t="n">
-        <v>0</v>
+        <v>55377</v>
       </c>
       <c r="G270" t="n">
-        <v>0</v>
+        <v>9392.8</v>
       </c>
       <c r="H270" t="n">
         <v>23.04</v>
@@ -12429,7 +12429,7 @@
         <v>0</v>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>89534.6</v>
       </c>
       <c r="G271" t="n">
         <v>0</v>
@@ -12464,7 +12464,7 @@
         <v>0</v>
       </c>
       <c r="F272" t="n">
-        <v>0</v>
+        <v>23235.9</v>
       </c>
       <c r="G272" t="n">
         <v>0</v>
@@ -12493,13 +12493,13 @@
         <v>313</v>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>5316.5</v>
       </c>
       <c r="E273" t="n">
         <v>0</v>
       </c>
       <c r="F273" t="n">
-        <v>0</v>
+        <v>60045.5</v>
       </c>
       <c r="G273" t="n">
         <v>0</v>
@@ -12528,13 +12528,13 @@
         <v>314</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>23305.1</v>
       </c>
       <c r="E274" t="n">
         <v>0</v>
       </c>
       <c r="F274" t="n">
-        <v>0</v>
+        <v>18600</v>
       </c>
       <c r="G274" t="n">
         <v>0</v>
@@ -12563,13 +12563,13 @@
         <v>315</v>
       </c>
       <c r="D275" t="n">
-        <v>0</v>
+        <v>10423.3</v>
       </c>
       <c r="E275" t="n">
         <v>0</v>
       </c>
       <c r="F275" t="n">
-        <v>0</v>
+        <v>11267.7</v>
       </c>
       <c r="G275" t="n">
         <v>0</v>
@@ -12598,13 +12598,13 @@
         <v>316</v>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>5229.6</v>
       </c>
       <c r="E276" t="n">
         <v>0</v>
       </c>
       <c r="F276" t="n">
-        <v>0</v>
+        <v>88096.6</v>
       </c>
       <c r="G276" t="n">
         <v>0</v>
@@ -12639,10 +12639,10 @@
         <v>0</v>
       </c>
       <c r="F277" t="n">
-        <v>0</v>
+        <v>35073.4</v>
       </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>41097.7</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -12677,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>0</v>
+        <v>32451.2</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -12709,10 +12709,10 @@
         <v>0</v>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>8641</v>
       </c>
       <c r="G279" t="n">
-        <v>0</v>
+        <v>19130.1</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -12744,10 +12744,10 @@
         <v>0</v>
       </c>
       <c r="F280" t="n">
-        <v>0</v>
+        <v>26580.4</v>
       </c>
       <c r="G280" t="n">
-        <v>0</v>
+        <v>7891.1</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -12782,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>0</v>
+        <v>21533.4</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -12814,10 +12814,10 @@
         <v>0</v>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>4786.8</v>
       </c>
       <c r="G282" t="n">
-        <v>0</v>
+        <v>14715.3</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -12852,7 +12852,7 @@
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>0</v>
+        <v>12713.5</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -12887,7 +12887,7 @@
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>0</v>
+        <v>206428.9</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -12922,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>0</v>
+        <v>119816.5</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -12957,7 +12957,7 @@
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>0</v>
+        <v>89006.5</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -12992,7 +12992,7 @@
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>0</v>
+        <v>172862.9</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -13027,7 +13027,7 @@
         <v>0</v>
       </c>
       <c r="G288" t="n">
-        <v>0</v>
+        <v>93073.1</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -13097,7 +13097,7 @@
         <v>0</v>
       </c>
       <c r="G290" t="n">
-        <v>0</v>
+        <v>78654.2</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -13132,7 +13132,7 @@
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>0</v>
+        <v>118662.9</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -13167,7 +13167,7 @@
         <v>0</v>
       </c>
       <c r="G292" t="n">
-        <v>0</v>
+        <v>96635.9</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -13202,7 +13202,7 @@
         <v>0</v>
       </c>
       <c r="G293" t="n">
-        <v>0</v>
+        <v>72500</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -13237,7 +13237,7 @@
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>0</v>
+        <v>170591.8</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -13263,7 +13263,7 @@
         <v>337</v>
       </c>
       <c r="D295" t="n">
-        <v>0</v>
+        <v>18157.1</v>
       </c>
       <c r="E295" t="n">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>338</v>
       </c>
       <c r="D296" t="n">
-        <v>0</v>
+        <v>9307.2</v>
       </c>
       <c r="E296" t="n">
         <v>0</v>
@@ -13333,7 +13333,7 @@
         <v>339</v>
       </c>
       <c r="D297" t="n">
-        <v>0</v>
+        <v>8730.6</v>
       </c>
       <c r="E297" t="n">
         <v>0</v>
@@ -13368,7 +13368,7 @@
         <v>340</v>
       </c>
       <c r="D298" t="n">
-        <v>0</v>
+        <v>8836.5</v>
       </c>
       <c r="E298" t="n">
         <v>0</v>
@@ -13403,7 +13403,7 @@
         <v>341</v>
       </c>
       <c r="D299" t="n">
-        <v>0</v>
+        <v>8859.6</v>
       </c>
       <c r="E299" t="n">
         <v>0</v>
@@ -13438,7 +13438,7 @@
         <v>342</v>
       </c>
       <c r="D300" t="n">
-        <v>0</v>
+        <v>9597.7</v>
       </c>
       <c r="E300" t="n">
         <v>0</v>
@@ -13473,7 +13473,7 @@
         <v>343</v>
       </c>
       <c r="D301" t="n">
-        <v>0</v>
+        <v>9088.5</v>
       </c>
       <c r="E301" t="n">
         <v>0</v>
@@ -13508,7 +13508,7 @@
         <v>344</v>
       </c>
       <c r="D302" t="n">
-        <v>0</v>
+        <v>18967.7</v>
       </c>
       <c r="E302" t="n">
         <v>0</v>
@@ -13543,7 +13543,7 @@
         <v>345</v>
       </c>
       <c r="D303" t="n">
-        <v>0</v>
+        <v>13901.9</v>
       </c>
       <c r="E303" t="n">
         <v>0</v>
@@ -13578,7 +13578,7 @@
         <v>346</v>
       </c>
       <c r="D304" t="n">
-        <v>0</v>
+        <v>4818</v>
       </c>
       <c r="E304" t="n">
         <v>0</v>
@@ -13613,7 +13613,7 @@
         <v>347</v>
       </c>
       <c r="D305" t="n">
-        <v>0</v>
+        <v>9547.2</v>
       </c>
       <c r="E305" t="n">
         <v>0</v>
@@ -13648,7 +13648,7 @@
         <v>348</v>
       </c>
       <c r="D306" t="n">
-        <v>0</v>
+        <v>48251.8</v>
       </c>
       <c r="E306" t="n">
         <v>0</v>
@@ -13683,7 +13683,7 @@
         <v>349</v>
       </c>
       <c r="D307" t="n">
-        <v>0</v>
+        <v>9655</v>
       </c>
       <c r="E307" t="n">
         <v>0</v>
@@ -13718,7 +13718,7 @@
         <v>350</v>
       </c>
       <c r="D308" t="n">
-        <v>0</v>
+        <v>4818.2</v>
       </c>
       <c r="E308" t="n">
         <v>0</v>
@@ -13753,7 +13753,7 @@
         <v>351</v>
       </c>
       <c r="D309" t="n">
-        <v>0</v>
+        <v>9586.1</v>
       </c>
       <c r="E309" t="n">
         <v>0</v>
@@ -13788,7 +13788,7 @@
         <v>352</v>
       </c>
       <c r="D310" t="n">
-        <v>0</v>
+        <v>4750.2</v>
       </c>
       <c r="E310" t="n">
         <v>0</v>
@@ -13823,7 +13823,7 @@
         <v>353</v>
       </c>
       <c r="D311" t="n">
-        <v>0</v>
+        <v>41606.3</v>
       </c>
       <c r="E311" t="n">
         <v>0</v>
@@ -13858,7 +13858,7 @@
         <v>354</v>
       </c>
       <c r="D312" t="n">
-        <v>0</v>
+        <v>59682.1</v>
       </c>
       <c r="E312" t="n">
         <v>0</v>
@@ -13893,13 +13893,13 @@
         <v>355</v>
       </c>
       <c r="D313" t="n">
-        <v>0</v>
+        <v>15211</v>
       </c>
       <c r="E313" t="n">
         <v>0</v>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>7738.3</v>
       </c>
       <c r="G313" t="n">
         <v>0</v>
@@ -13928,7 +13928,7 @@
         <v>356</v>
       </c>
       <c r="D314" t="n">
-        <v>0</v>
+        <v>19255.4</v>
       </c>
       <c r="E314" t="n">
         <v>0</v>
@@ -13963,13 +13963,13 @@
         <v>357</v>
       </c>
       <c r="D315" t="n">
-        <v>0</v>
+        <v>4819.1</v>
       </c>
       <c r="E315" t="n">
         <v>0</v>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>4884.9</v>
       </c>
       <c r="G315" t="n">
         <v>0</v>
@@ -13998,7 +13998,7 @@
         <v>358</v>
       </c>
       <c r="D316" t="n">
-        <v>0</v>
+        <v>9682.6</v>
       </c>
       <c r="E316" t="n">
         <v>0</v>
@@ -14033,7 +14033,7 @@
         <v>359</v>
       </c>
       <c r="D317" t="n">
-        <v>0</v>
+        <v>4865.9</v>
       </c>
       <c r="E317" t="n">
         <v>0</v>
@@ -14068,7 +14068,7 @@
         <v>360</v>
       </c>
       <c r="D318" t="n">
-        <v>0</v>
+        <v>4719</v>
       </c>
       <c r="E318" t="n">
         <v>0</v>
@@ -14103,7 +14103,7 @@
         <v>361</v>
       </c>
       <c r="D319" t="n">
-        <v>0</v>
+        <v>14019</v>
       </c>
       <c r="E319" t="n">
         <v>0</v>
@@ -14138,7 +14138,7 @@
         <v>362</v>
       </c>
       <c r="D320" t="n">
-        <v>0</v>
+        <v>25928</v>
       </c>
       <c r="E320" t="n">
         <v>0</v>
@@ -14173,7 +14173,7 @@
         <v>363</v>
       </c>
       <c r="D321" t="n">
-        <v>0</v>
+        <v>3887.8</v>
       </c>
       <c r="E321" t="n">
         <v>0</v>
@@ -14217,7 +14217,7 @@
         <v>0</v>
       </c>
       <c r="G322" t="n">
-        <v>0</v>
+        <v>35945.1</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -14252,7 +14252,7 @@
         <v>0</v>
       </c>
       <c r="G323" t="n">
-        <v>0</v>
+        <v>54469.9</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -14287,7 +14287,7 @@
         <v>0</v>
       </c>
       <c r="G324" t="n">
-        <v>0</v>
+        <v>12305.5</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -14322,7 +14322,7 @@
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>0</v>
+        <v>114590.8</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -14357,7 +14357,7 @@
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>0</v>
+        <v>28698.1</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -14392,7 +14392,7 @@
         <v>0</v>
       </c>
       <c r="G327" t="n">
-        <v>0</v>
+        <v>105799.5</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -14427,7 +14427,7 @@
         <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>0</v>
+        <v>12815.8</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -14462,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="G329" t="n">
-        <v>0</v>
+        <v>57501.8</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -14497,7 +14497,7 @@
         <v>0</v>
       </c>
       <c r="G330" t="n">
-        <v>0</v>
+        <v>3389.8</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -14532,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>0</v>
+        <v>53909.6</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -14567,7 +14567,7 @@
         <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>0</v>
+        <v>108717.5</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -14602,7 +14602,7 @@
         <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>0</v>
+        <v>24237.9</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -14637,7 +14637,7 @@
         <v>0</v>
       </c>
       <c r="G334" t="n">
-        <v>0</v>
+        <v>3061.7</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -14672,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="G335" t="n">
-        <v>0</v>
+        <v>77624.4</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -14707,7 +14707,7 @@
         <v>0</v>
       </c>
       <c r="G336" t="n">
-        <v>0</v>
+        <v>76049.8</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -14742,7 +14742,7 @@
         <v>0</v>
       </c>
       <c r="G337" t="n">
-        <v>0</v>
+        <v>21747.8</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -14777,7 +14777,7 @@
         <v>0</v>
       </c>
       <c r="G338" t="n">
-        <v>0</v>
+        <v>46485.2</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -14812,7 +14812,7 @@
         <v>0</v>
       </c>
       <c r="G339" t="n">
-        <v>0</v>
+        <v>47921.5</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -14847,7 +14847,7 @@
         <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>0</v>
+        <v>77861</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -14882,7 +14882,7 @@
         <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>0</v>
+        <v>13062.2</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -14917,7 +14917,7 @@
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>0</v>
+        <v>22789.1</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -14952,7 +14952,7 @@
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>0</v>
+        <v>55763.5</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -14987,7 +14987,7 @@
         <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>0</v>
+        <v>91962.3</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -15022,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>0</v>
+        <v>42655.9</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -15057,7 +15057,7 @@
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>0</v>
+        <v>11941.2</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -15092,7 +15092,7 @@
         <v>0</v>
       </c>
       <c r="G347" t="n">
-        <v>0</v>
+        <v>45824</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="G348" t="n">
-        <v>0</v>
+        <v>23251.4</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -15159,10 +15159,10 @@
         <v>0</v>
       </c>
       <c r="F349" t="n">
-        <v>0</v>
+        <v>6832.1</v>
       </c>
       <c r="G349" t="n">
-        <v>0</v>
+        <v>294281.6</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -15194,10 +15194,10 @@
         <v>0</v>
       </c>
       <c r="F350" t="n">
-        <v>0</v>
+        <v>6902.4</v>
       </c>
       <c r="G350" t="n">
-        <v>0</v>
+        <v>277901.8</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -15232,7 +15232,7 @@
         <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>0</v>
+        <v>208549.6</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -15267,7 +15267,7 @@
         <v>0</v>
       </c>
       <c r="G352" t="n">
-        <v>0</v>
+        <v>303814.2</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -15302,7 +15302,7 @@
         <v>0</v>
       </c>
       <c r="G353" t="n">
-        <v>0</v>
+        <v>131279.9</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -15334,10 +15334,10 @@
         <v>0</v>
       </c>
       <c r="F354" t="n">
-        <v>0</v>
+        <v>18831.5</v>
       </c>
       <c r="G354" t="n">
-        <v>0</v>
+        <v>33760</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -15363,16 +15363,16 @@
         <v>399</v>
       </c>
       <c r="D355" t="n">
-        <v>0</v>
+        <v>6656.2</v>
       </c>
       <c r="E355" t="n">
         <v>0</v>
       </c>
       <c r="F355" t="n">
-        <v>0</v>
+        <v>31769</v>
       </c>
       <c r="G355" t="n">
-        <v>0</v>
+        <v>54255.3</v>
       </c>
       <c r="H355" t="n">
         <v>33.186</v>
@@ -15404,10 +15404,10 @@
         <v>0</v>
       </c>
       <c r="F356" t="n">
-        <v>0</v>
+        <v>105442.2</v>
       </c>
       <c r="G356" t="n">
-        <v>0</v>
+        <v>80398.4</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -15442,7 +15442,7 @@
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>0</v>
+        <v>6359.1</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -15477,7 +15477,7 @@
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>0</v>
+        <v>5999.4</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -15509,10 +15509,10 @@
         <v>0</v>
       </c>
       <c r="F359" t="n">
-        <v>0</v>
+        <v>95778</v>
       </c>
       <c r="G359" t="n">
-        <v>0</v>
+        <v>30616.2</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -15544,10 +15544,10 @@
         <v>0</v>
       </c>
       <c r="F360" t="n">
-        <v>0</v>
+        <v>6447.1</v>
       </c>
       <c r="G360" t="n">
-        <v>0</v>
+        <v>128065.6</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -15573,16 +15573,16 @@
         <v>405</v>
       </c>
       <c r="D361" t="n">
-        <v>0</v>
+        <v>5877.2</v>
       </c>
       <c r="E361" t="n">
-        <v>0</v>
+        <v>16383.1</v>
       </c>
       <c r="F361" t="n">
-        <v>0</v>
+        <v>2601.9</v>
       </c>
       <c r="G361" t="n">
-        <v>0</v>
+        <v>14252.6</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -15617,7 +15617,7 @@
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>0</v>
+        <v>217830.1</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -15652,7 +15652,7 @@
         <v>0</v>
       </c>
       <c r="G363" t="n">
-        <v>0</v>
+        <v>199422.2</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -15687,7 +15687,7 @@
         <v>0</v>
       </c>
       <c r="G364" t="n">
-        <v>0</v>
+        <v>63211.8</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -15722,7 +15722,7 @@
         <v>0</v>
       </c>
       <c r="G365" t="n">
-        <v>0</v>
+        <v>210491.6</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -15757,7 +15757,7 @@
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>0</v>
+        <v>74361.6</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -15792,7 +15792,7 @@
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>0</v>
+        <v>36158.4</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -15821,13 +15821,13 @@
         <v>0</v>
       </c>
       <c r="E368" t="n">
-        <v>0</v>
+        <v>10029</v>
       </c>
       <c r="F368" t="n">
-        <v>0</v>
+        <v>10760.3</v>
       </c>
       <c r="G368" t="n">
-        <v>0</v>
+        <v>36243.8</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -15862,7 +15862,7 @@
         <v>0</v>
       </c>
       <c r="G369" t="n">
-        <v>0</v>
+        <v>173356.1</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -15888,16 +15888,16 @@
         <v>414</v>
       </c>
       <c r="D370" t="n">
-        <v>0</v>
+        <v>4298.9</v>
       </c>
       <c r="E370" t="n">
-        <v>0</v>
+        <v>6407.1</v>
       </c>
       <c r="F370" t="n">
-        <v>0</v>
+        <v>39054.7</v>
       </c>
       <c r="G370" t="n">
-        <v>0</v>
+        <v>110799.6</v>
       </c>
       <c r="H370" t="n">
         <v>7.795</v>
@@ -15932,7 +15932,7 @@
         <v>0</v>
       </c>
       <c r="G371" t="n">
-        <v>0</v>
+        <v>22518.7</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -15967,7 +15967,7 @@
         <v>0</v>
       </c>
       <c r="G372" t="n">
-        <v>0</v>
+        <v>101333.8</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -16002,7 +16002,7 @@
         <v>0</v>
       </c>
       <c r="G373" t="n">
-        <v>0</v>
+        <v>64134.3</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -16037,7 +16037,7 @@
         <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>0</v>
+        <v>60292.3</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -16072,7 +16072,7 @@
         <v>0</v>
       </c>
       <c r="G375" t="n">
-        <v>0</v>
+        <v>91236.5</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -16107,7 +16107,7 @@
         <v>0</v>
       </c>
       <c r="G376" t="n">
-        <v>0</v>
+        <v>100898.8</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -16142,7 +16142,7 @@
         <v>0</v>
       </c>
       <c r="G377" t="n">
-        <v>0</v>
+        <v>75077.2</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -16177,7 +16177,7 @@
         <v>0</v>
       </c>
       <c r="G378" t="n">
-        <v>0</v>
+        <v>6333.2</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -16212,7 +16212,7 @@
         <v>0</v>
       </c>
       <c r="G379" t="n">
-        <v>0</v>
+        <v>96754.7</v>
       </c>
       <c r="H379" t="n">
         <v>0</v>
@@ -16247,7 +16247,7 @@
         <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>0</v>
+        <v>60157.1</v>
       </c>
       <c r="H380" t="n">
         <v>0</v>
@@ -16282,7 +16282,7 @@
         <v>0</v>
       </c>
       <c r="G381" t="n">
-        <v>0</v>
+        <v>74028.6</v>
       </c>
       <c r="H381" t="n">
         <v>0</v>
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="G382" t="n">
-        <v>0</v>
+        <v>111704.2</v>
       </c>
       <c r="H382" t="n">
         <v>0</v>
@@ -16387,7 +16387,7 @@
         <v>0</v>
       </c>
       <c r="G384" t="n">
-        <v>0</v>
+        <v>77007.3</v>
       </c>
       <c r="H384" t="n">
         <v>0</v>
@@ -16422,7 +16422,7 @@
         <v>0</v>
       </c>
       <c r="G385" t="n">
-        <v>0</v>
+        <v>66961.2</v>
       </c>
       <c r="H385" t="n">
         <v>0</v>
@@ -16457,7 +16457,7 @@
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>0</v>
+        <v>25073.9</v>
       </c>
       <c r="H386" t="n">
         <v>0</v>
@@ -16492,7 +16492,7 @@
         <v>0</v>
       </c>
       <c r="G387" t="n">
-        <v>0</v>
+        <v>92904.2</v>
       </c>
       <c r="H387" t="n">
         <v>0</v>
@@ -16527,7 +16527,7 @@
         <v>0</v>
       </c>
       <c r="G388" t="n">
-        <v>0</v>
+        <v>38822.5</v>
       </c>
       <c r="H388" t="n">
         <v>0</v>
@@ -16562,7 +16562,7 @@
         <v>0</v>
       </c>
       <c r="G389" t="n">
-        <v>0</v>
+        <v>6559.6</v>
       </c>
       <c r="H389" t="n">
         <v>0</v>
@@ -16597,7 +16597,7 @@
         <v>0</v>
       </c>
       <c r="G390" t="n">
-        <v>0</v>
+        <v>53751.5</v>
       </c>
       <c r="H390" t="n">
         <v>0</v>
@@ -16632,7 +16632,7 @@
         <v>0</v>
       </c>
       <c r="G391" t="n">
-        <v>0</v>
+        <v>40505.4</v>
       </c>
       <c r="H391" t="n">
         <v>0</v>
@@ -16667,7 +16667,7 @@
         <v>0</v>
       </c>
       <c r="G392" t="n">
-        <v>0</v>
+        <v>6559.6</v>
       </c>
       <c r="H392" t="n">
         <v>0</v>
@@ -16702,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="G393" t="n">
-        <v>0</v>
+        <v>51441.3</v>
       </c>
       <c r="H393" t="n">
         <v>0</v>
@@ -16737,7 +16737,7 @@
         <v>0</v>
       </c>
       <c r="G394" t="n">
-        <v>0</v>
+        <v>46637.3</v>
       </c>
       <c r="H394" t="n">
         <v>0</v>
@@ -16772,7 +16772,7 @@
         <v>0</v>
       </c>
       <c r="G395" t="n">
-        <v>0</v>
+        <v>125543.3</v>
       </c>
       <c r="H395" t="n">
         <v>0</v>
@@ -16807,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="G396" t="n">
-        <v>0</v>
+        <v>18097.3</v>
       </c>
       <c r="H396" t="n">
         <v>0</v>
@@ -16842,7 +16842,7 @@
         <v>0</v>
       </c>
       <c r="G397" t="n">
-        <v>0</v>
+        <v>66688.5</v>
       </c>
       <c r="H397" t="n">
         <v>0</v>
@@ -16877,7 +16877,7 @@
         <v>0</v>
       </c>
       <c r="G398" t="n">
-        <v>0</v>
+        <v>17646</v>
       </c>
       <c r="H398" t="n">
         <v>0</v>
@@ -16912,7 +16912,7 @@
         <v>0</v>
       </c>
       <c r="G399" t="n">
-        <v>0</v>
+        <v>39291.9</v>
       </c>
       <c r="H399" t="n">
         <v>0</v>
@@ -16947,7 +16947,7 @@
         <v>0</v>
       </c>
       <c r="G400" t="n">
-        <v>0</v>
+        <v>54367</v>
       </c>
       <c r="H400" t="n">
         <v>0</v>
@@ -16982,7 +16982,7 @@
         <v>0</v>
       </c>
       <c r="G401" t="n">
-        <v>0</v>
+        <v>59944</v>
       </c>
       <c r="H401" t="n">
         <v>0</v>
@@ -17052,7 +17052,7 @@
         <v>0</v>
       </c>
       <c r="G403" t="n">
-        <v>0</v>
+        <v>75010.4</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -17087,7 +17087,7 @@
         <v>0</v>
       </c>
       <c r="G404" t="n">
-        <v>0</v>
+        <v>33807.5</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -17122,7 +17122,7 @@
         <v>0</v>
       </c>
       <c r="G405" t="n">
-        <v>0</v>
+        <v>81155.7</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -17157,7 +17157,7 @@
         <v>0</v>
       </c>
       <c r="G406" t="n">
-        <v>0</v>
+        <v>85817.9</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -17192,7 +17192,7 @@
         <v>0</v>
       </c>
       <c r="G407" t="n">
-        <v>0</v>
+        <v>124672.8</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -17227,7 +17227,7 @@
         <v>0</v>
       </c>
       <c r="G408" t="n">
-        <v>0</v>
+        <v>110467.3</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -17262,7 +17262,7 @@
         <v>0</v>
       </c>
       <c r="G409" t="n">
-        <v>0</v>
+        <v>5370.7</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -17297,7 +17297,7 @@
         <v>0</v>
       </c>
       <c r="G410" t="n">
-        <v>0</v>
+        <v>33926.6</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -17332,7 +17332,7 @@
         <v>0</v>
       </c>
       <c r="G411" t="n">
-        <v>0</v>
+        <v>59842.4</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -17367,7 +17367,7 @@
         <v>0</v>
       </c>
       <c r="G412" t="n">
-        <v>0</v>
+        <v>163085.7</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -17402,7 +17402,7 @@
         <v>0</v>
       </c>
       <c r="G413" t="n">
-        <v>0</v>
+        <v>30962.3</v>
       </c>
       <c r="H413" t="n">
         <v>0</v>
@@ -17437,7 +17437,7 @@
         <v>0</v>
       </c>
       <c r="G414" t="n">
-        <v>0</v>
+        <v>33485.1</v>
       </c>
       <c r="H414" t="n">
         <v>0</v>
@@ -17472,7 +17472,7 @@
         <v>0</v>
       </c>
       <c r="G415" t="n">
-        <v>0</v>
+        <v>40848.3</v>
       </c>
       <c r="H415" t="n">
         <v>0</v>
@@ -17507,7 +17507,7 @@
         <v>0</v>
       </c>
       <c r="G416" t="n">
-        <v>0</v>
+        <v>102145.2</v>
       </c>
       <c r="H416" t="n">
         <v>0</v>
@@ -17542,7 +17542,7 @@
         <v>0</v>
       </c>
       <c r="G417" t="n">
-        <v>0</v>
+        <v>33441.6</v>
       </c>
       <c r="H417" t="n">
         <v>0</v>
@@ -17577,7 +17577,7 @@
         <v>0</v>
       </c>
       <c r="G418" t="n">
-        <v>0</v>
+        <v>77360.5</v>
       </c>
       <c r="H418" t="n">
         <v>0</v>
@@ -17612,7 +17612,7 @@
         <v>0</v>
       </c>
       <c r="G419" t="n">
-        <v>0</v>
+        <v>25072</v>
       </c>
       <c r="H419" t="n">
         <v>0</v>
@@ -17647,7 +17647,7 @@
         <v>0</v>
       </c>
       <c r="G420" t="n">
-        <v>0</v>
+        <v>49419.2</v>
       </c>
       <c r="H420" t="n">
         <v>0</v>
@@ -17682,7 +17682,7 @@
         <v>0</v>
       </c>
       <c r="G421" t="n">
-        <v>0</v>
+        <v>61696.9</v>
       </c>
       <c r="H421" t="n">
         <v>0</v>
@@ -17717,7 +17717,7 @@
         <v>0</v>
       </c>
       <c r="G422" t="n">
-        <v>0</v>
+        <v>81357.4</v>
       </c>
       <c r="H422" t="n">
         <v>0</v>
@@ -17752,7 +17752,7 @@
         <v>0</v>
       </c>
       <c r="G423" t="n">
-        <v>0</v>
+        <v>87986.4</v>
       </c>
       <c r="H423" t="n">
         <v>0</v>
@@ -17787,7 +17787,7 @@
         <v>0</v>
       </c>
       <c r="G424" t="n">
-        <v>0</v>
+        <v>88493.2</v>
       </c>
       <c r="H424" t="n">
         <v>0</v>
@@ -17822,7 +17822,7 @@
         <v>0</v>
       </c>
       <c r="G425" t="n">
-        <v>0</v>
+        <v>7374</v>
       </c>
       <c r="H425" t="n">
         <v>0</v>
@@ -17857,7 +17857,7 @@
         <v>0</v>
       </c>
       <c r="G426" t="n">
-        <v>0</v>
+        <v>18087.3</v>
       </c>
       <c r="H426" t="n">
         <v>0</v>
@@ -17892,7 +17892,7 @@
         <v>0</v>
       </c>
       <c r="G427" t="n">
-        <v>0</v>
+        <v>64036.7</v>
       </c>
       <c r="H427" t="n">
         <v>0</v>
@@ -17927,7 +17927,7 @@
         <v>0</v>
       </c>
       <c r="G428" t="n">
-        <v>0</v>
+        <v>137605.5</v>
       </c>
       <c r="H428" t="n">
         <v>0</v>
@@ -17962,7 +17962,7 @@
         <v>0</v>
       </c>
       <c r="G429" t="n">
-        <v>0</v>
+        <v>60096.1</v>
       </c>
       <c r="H429" t="n">
         <v>0</v>
@@ -17997,7 +17997,7 @@
         <v>0</v>
       </c>
       <c r="G430" t="n">
-        <v>0</v>
+        <v>83078.3</v>
       </c>
       <c r="H430" t="n">
         <v>0</v>
@@ -18032,7 +18032,7 @@
         <v>0</v>
       </c>
       <c r="G431" t="n">
-        <v>0</v>
+        <v>68731.8</v>
       </c>
       <c r="H431" t="n">
         <v>0</v>
@@ -18067,7 +18067,7 @@
         <v>0</v>
       </c>
       <c r="G432" t="n">
-        <v>0</v>
+        <v>132047.9</v>
       </c>
       <c r="H432" t="n">
         <v>0</v>
@@ -18102,7 +18102,7 @@
         <v>0</v>
       </c>
       <c r="G433" t="n">
-        <v>0</v>
+        <v>42302.2</v>
       </c>
       <c r="H433" t="n">
         <v>0</v>
@@ -18137,7 +18137,7 @@
         <v>0</v>
       </c>
       <c r="G434" t="n">
-        <v>0</v>
+        <v>178529.1</v>
       </c>
       <c r="H434" t="n">
         <v>0</v>
@@ -18172,7 +18172,7 @@
         <v>0</v>
       </c>
       <c r="G435" t="n">
-        <v>0</v>
+        <v>124591.6</v>
       </c>
       <c r="H435" t="n">
         <v>0</v>
@@ -18207,7 +18207,7 @@
         <v>0</v>
       </c>
       <c r="G436" t="n">
-        <v>0</v>
+        <v>2824.9</v>
       </c>
       <c r="H436" t="n">
         <v>0</v>
@@ -18242,7 +18242,7 @@
         <v>0</v>
       </c>
       <c r="G437" t="n">
-        <v>0</v>
+        <v>46284.9</v>
       </c>
       <c r="H437" t="n">
         <v>0</v>
@@ -18277,7 +18277,7 @@
         <v>0</v>
       </c>
       <c r="G438" t="n">
-        <v>0</v>
+        <v>38666.4</v>
       </c>
       <c r="H438" t="n">
         <v>0</v>
@@ -18312,7 +18312,7 @@
         <v>0</v>
       </c>
       <c r="G439" t="n">
-        <v>0</v>
+        <v>35518.5</v>
       </c>
       <c r="H439" t="n">
         <v>0</v>
@@ -18347,7 +18347,7 @@
         <v>0</v>
       </c>
       <c r="G440" t="n">
-        <v>0</v>
+        <v>94325.9</v>
       </c>
       <c r="H440" t="n">
         <v>0</v>
@@ -18382,7 +18382,7 @@
         <v>0</v>
       </c>
       <c r="G441" t="n">
-        <v>0</v>
+        <v>43915.5</v>
       </c>
       <c r="H441" t="n">
         <v>0</v>
@@ -18417,7 +18417,7 @@
         <v>0</v>
       </c>
       <c r="G442" t="n">
-        <v>0</v>
+        <v>18899.4</v>
       </c>
       <c r="H442" t="n">
         <v>0</v>
@@ -18452,7 +18452,7 @@
         <v>0</v>
       </c>
       <c r="G443" t="n">
-        <v>0</v>
+        <v>51268.3</v>
       </c>
       <c r="H443" t="n">
         <v>0</v>
@@ -18487,7 +18487,7 @@
         <v>0</v>
       </c>
       <c r="G444" t="n">
-        <v>0</v>
+        <v>96601</v>
       </c>
       <c r="H444" t="n">
         <v>0</v>
@@ -18522,7 +18522,7 @@
         <v>0</v>
       </c>
       <c r="G445" t="n">
-        <v>0</v>
+        <v>26132.8</v>
       </c>
       <c r="H445" t="n">
         <v>0</v>
@@ -18557,7 +18557,7 @@
         <v>0</v>
       </c>
       <c r="G446" t="n">
-        <v>0</v>
+        <v>82542.8</v>
       </c>
       <c r="H446" t="n">
         <v>0</v>
@@ -18592,7 +18592,7 @@
         <v>0</v>
       </c>
       <c r="G447" t="n">
-        <v>0</v>
+        <v>108682.2</v>
       </c>
       <c r="H447" t="n">
         <v>0</v>
@@ -18627,7 +18627,7 @@
         <v>0</v>
       </c>
       <c r="G448" t="n">
-        <v>0</v>
+        <v>16063.7</v>
       </c>
       <c r="H448" t="n">
         <v>0</v>
@@ -18662,7 +18662,7 @@
         <v>0</v>
       </c>
       <c r="G449" t="n">
-        <v>0</v>
+        <v>33056.1</v>
       </c>
       <c r="H449" t="n">
         <v>0</v>
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="G450" t="n">
-        <v>0</v>
+        <v>21616.2</v>
       </c>
       <c r="H450" t="n">
         <v>0</v>
@@ -18732,7 +18732,7 @@
         <v>0</v>
       </c>
       <c r="G451" t="n">
-        <v>0</v>
+        <v>141399.7</v>
       </c>
       <c r="H451" t="n">
         <v>0</v>
@@ -18767,7 +18767,7 @@
         <v>0</v>
       </c>
       <c r="G452" t="n">
-        <v>0</v>
+        <v>54516.3</v>
       </c>
       <c r="H452" t="n">
         <v>0</v>
@@ -18802,7 +18802,7 @@
         <v>0</v>
       </c>
       <c r="G453" t="n">
-        <v>0</v>
+        <v>39102.2</v>
       </c>
       <c r="H453" t="n">
         <v>0</v>
@@ -18837,7 +18837,7 @@
         <v>0</v>
       </c>
       <c r="G454" t="n">
-        <v>0</v>
+        <v>79734.3</v>
       </c>
       <c r="H454" t="n">
         <v>0</v>
@@ -18872,7 +18872,7 @@
         <v>0</v>
       </c>
       <c r="G455" t="n">
-        <v>0</v>
+        <v>64894.4</v>
       </c>
       <c r="H455" t="n">
         <v>0</v>
@@ -18907,7 +18907,7 @@
         <v>0</v>
       </c>
       <c r="G456" t="n">
-        <v>0</v>
+        <v>26722.2</v>
       </c>
       <c r="H456" t="n">
         <v>0</v>
@@ -18942,7 +18942,7 @@
         <v>0</v>
       </c>
       <c r="G457" t="n">
-        <v>0</v>
+        <v>70924.1</v>
       </c>
       <c r="H457" t="n">
         <v>0</v>
@@ -18977,7 +18977,7 @@
         <v>0</v>
       </c>
       <c r="G458" t="n">
-        <v>0</v>
+        <v>117487</v>
       </c>
       <c r="H458" t="n">
         <v>0</v>
@@ -19012,7 +19012,7 @@
         <v>0</v>
       </c>
       <c r="G459" t="n">
-        <v>0</v>
+        <v>61278.8</v>
       </c>
       <c r="H459" t="n">
         <v>0</v>
@@ -19047,7 +19047,7 @@
         <v>0</v>
       </c>
       <c r="G460" t="n">
-        <v>0</v>
+        <v>44767.5</v>
       </c>
       <c r="H460" t="n">
         <v>0</v>
@@ -19082,7 +19082,7 @@
         <v>0</v>
       </c>
       <c r="G461" t="n">
-        <v>0</v>
+        <v>57075.3</v>
       </c>
       <c r="H461" t="n">
         <v>0</v>
@@ -19117,7 +19117,7 @@
         <v>0</v>
       </c>
       <c r="G462" t="n">
-        <v>0</v>
+        <v>30008.9</v>
       </c>
       <c r="H462" t="n">
         <v>0</v>
@@ -19152,7 +19152,7 @@
         <v>0</v>
       </c>
       <c r="G463" t="n">
-        <v>0</v>
+        <v>45321.4</v>
       </c>
       <c r="H463" t="n">
         <v>0</v>
@@ -19187,7 +19187,7 @@
         <v>0</v>
       </c>
       <c r="G464" t="n">
-        <v>0</v>
+        <v>63617.4</v>
       </c>
       <c r="H464" t="n">
         <v>0</v>
@@ -19222,7 +19222,7 @@
         <v>0</v>
       </c>
       <c r="G465" t="n">
-        <v>0</v>
+        <v>59372.4</v>
       </c>
       <c r="H465" t="n">
         <v>0</v>
@@ -19257,7 +19257,7 @@
         <v>0</v>
       </c>
       <c r="G466" t="n">
-        <v>0</v>
+        <v>39985.2</v>
       </c>
       <c r="H466" t="n">
         <v>0</v>
@@ -19292,7 +19292,7 @@
         <v>0</v>
       </c>
       <c r="G467" t="n">
-        <v>0</v>
+        <v>44894.9</v>
       </c>
       <c r="H467" t="n">
         <v>0</v>
@@ -19327,7 +19327,7 @@
         <v>0</v>
       </c>
       <c r="G468" t="n">
-        <v>0</v>
+        <v>50557.7</v>
       </c>
       <c r="H468" t="n">
         <v>0</v>
@@ -19362,7 +19362,7 @@
         <v>0</v>
       </c>
       <c r="G469" t="n">
-        <v>0</v>
+        <v>34879.8</v>
       </c>
       <c r="H469" t="n">
         <v>0</v>
@@ -19397,7 +19397,7 @@
         <v>0</v>
       </c>
       <c r="G470" t="n">
-        <v>0</v>
+        <v>39212.2</v>
       </c>
       <c r="H470" t="n">
         <v>0</v>
@@ -19429,10 +19429,10 @@
         <v>0</v>
       </c>
       <c r="F471" t="n">
-        <v>0</v>
+        <v>1810.1</v>
       </c>
       <c r="G471" t="n">
-        <v>0</v>
+        <v>28413.8</v>
       </c>
       <c r="H471" t="n">
         <v>0</v>
@@ -19467,7 +19467,7 @@
         <v>0</v>
       </c>
       <c r="G472" t="n">
-        <v>0</v>
+        <v>36492.4</v>
       </c>
       <c r="H472" t="n">
         <v>0</v>
@@ -19499,10 +19499,10 @@
         <v>0</v>
       </c>
       <c r="F473" t="n">
-        <v>0</v>
+        <v>533.8</v>
       </c>
       <c r="G473" t="n">
-        <v>0</v>
+        <v>46670.8</v>
       </c>
       <c r="H473" t="n">
         <v>0</v>
@@ -19534,10 +19534,10 @@
         <v>0</v>
       </c>
       <c r="F474" t="n">
-        <v>0</v>
+        <v>2110.5</v>
       </c>
       <c r="G474" t="n">
-        <v>0</v>
+        <v>67441.3</v>
       </c>
       <c r="H474" t="n">
         <v>0</v>
@@ -19569,10 +19569,10 @@
         <v>0</v>
       </c>
       <c r="F475" t="n">
-        <v>0</v>
+        <v>2777.4</v>
       </c>
       <c r="G475" t="n">
-        <v>0</v>
+        <v>64439.3</v>
       </c>
       <c r="H475" t="n">
         <v>0</v>
@@ -19604,10 +19604,10 @@
         <v>0</v>
       </c>
       <c r="F476" t="n">
-        <v>0</v>
+        <v>35376</v>
       </c>
       <c r="G476" t="n">
-        <v>0</v>
+        <v>3616.6</v>
       </c>
       <c r="H476" t="n">
         <v>0</v>
@@ -19642,7 +19642,7 @@
         <v>0</v>
       </c>
       <c r="G477" t="n">
-        <v>0</v>
+        <v>1050.2</v>
       </c>
       <c r="H477" t="n">
         <v>0</v>
@@ -19668,16 +19668,16 @@
         <v>524</v>
       </c>
       <c r="D478" t="n">
-        <v>0</v>
+        <v>1745.3</v>
       </c>
       <c r="E478" t="n">
         <v>0</v>
       </c>
       <c r="F478" t="n">
-        <v>0</v>
+        <v>25692.2</v>
       </c>
       <c r="G478" t="n">
-        <v>0</v>
+        <v>39599.5</v>
       </c>
       <c r="H478" t="n">
         <v>0</v>
@@ -19709,7 +19709,7 @@
         <v>0</v>
       </c>
       <c r="F479" t="n">
-        <v>0</v>
+        <v>16781.5</v>
       </c>
       <c r="G479" t="n">
         <v>0</v>
@@ -19744,10 +19744,10 @@
         <v>0</v>
       </c>
       <c r="F480" t="n">
-        <v>0</v>
+        <v>24080.9</v>
       </c>
       <c r="G480" t="n">
-        <v>0</v>
+        <v>9122.9</v>
       </c>
       <c r="H480" t="n">
         <v>0</v>
@@ -19782,7 +19782,7 @@
         <v>0</v>
       </c>
       <c r="G481" t="n">
-        <v>0</v>
+        <v>47435.2</v>
       </c>
       <c r="H481" t="n">
         <v>0</v>
@@ -19814,10 +19814,10 @@
         <v>0</v>
       </c>
       <c r="F482" t="n">
-        <v>0</v>
+        <v>6575.5</v>
       </c>
       <c r="G482" t="n">
-        <v>0</v>
+        <v>83754.9</v>
       </c>
       <c r="H482" t="n">
         <v>0</v>
@@ -19849,10 +19849,10 @@
         <v>0</v>
       </c>
       <c r="F483" t="n">
-        <v>0</v>
+        <v>3384.6</v>
       </c>
       <c r="G483" t="n">
-        <v>0</v>
+        <v>2542.3</v>
       </c>
       <c r="H483" t="n">
         <v>0</v>
@@ -19884,10 +19884,10 @@
         <v>0</v>
       </c>
       <c r="F484" t="n">
-        <v>0</v>
+        <v>5961.6</v>
       </c>
       <c r="G484" t="n">
-        <v>0</v>
+        <v>53246.7</v>
       </c>
       <c r="H484" t="n">
         <v>0</v>
@@ -19922,7 +19922,7 @@
         <v>0</v>
       </c>
       <c r="G485" t="n">
-        <v>0</v>
+        <v>2833.1</v>
       </c>
       <c r="H485" t="n">
         <v>0</v>
@@ -19954,10 +19954,10 @@
         <v>0</v>
       </c>
       <c r="F486" t="n">
-        <v>0</v>
+        <v>8455.7</v>
       </c>
       <c r="G486" t="n">
-        <v>0</v>
+        <v>20271.1</v>
       </c>
       <c r="H486" t="n">
         <v>0</v>
@@ -19989,10 +19989,10 @@
         <v>0</v>
       </c>
       <c r="F487" t="n">
-        <v>0</v>
+        <v>953</v>
       </c>
       <c r="G487" t="n">
-        <v>0</v>
+        <v>15616.9</v>
       </c>
       <c r="H487" t="n">
         <v>0</v>
@@ -20018,16 +20018,16 @@
         <v>533</v>
       </c>
       <c r="D488" t="n">
-        <v>0</v>
+        <v>5451.4</v>
       </c>
       <c r="E488" t="n">
         <v>0</v>
       </c>
       <c r="F488" t="n">
-        <v>0</v>
+        <v>8952.5</v>
       </c>
       <c r="G488" t="n">
-        <v>0</v>
+        <v>29300.1</v>
       </c>
       <c r="H488" t="n">
         <v>13.632</v>
@@ -20059,10 +20059,10 @@
         <v>0</v>
       </c>
       <c r="F489" t="n">
-        <v>0</v>
+        <v>4103.3</v>
       </c>
       <c r="G489" t="n">
-        <v>0</v>
+        <v>42113.2</v>
       </c>
       <c r="H489" t="n">
         <v>0</v>
@@ -20094,10 +20094,10 @@
         <v>0</v>
       </c>
       <c r="F490" t="n">
-        <v>0</v>
+        <v>7957.4</v>
       </c>
       <c r="G490" t="n">
-        <v>0</v>
+        <v>7169.2</v>
       </c>
       <c r="H490" t="n">
         <v>0</v>
@@ -20129,10 +20129,10 @@
         <v>0</v>
       </c>
       <c r="F491" t="n">
-        <v>0</v>
+        <v>4023.5</v>
       </c>
       <c r="G491" t="n">
-        <v>0</v>
+        <v>4920.1</v>
       </c>
       <c r="H491" t="n">
         <v>0</v>
@@ -20164,10 +20164,10 @@
         <v>0</v>
       </c>
       <c r="F492" t="n">
-        <v>0</v>
+        <v>12823.4</v>
       </c>
       <c r="G492" t="n">
-        <v>0</v>
+        <v>30692.6</v>
       </c>
       <c r="H492" t="n">
         <v>0</v>
@@ -20199,10 +20199,10 @@
         <v>0</v>
       </c>
       <c r="F493" t="n">
-        <v>0</v>
+        <v>3085.4</v>
       </c>
       <c r="G493" t="n">
-        <v>0</v>
+        <v>70590.3</v>
       </c>
       <c r="H493" t="n">
         <v>0</v>
@@ -20237,7 +20237,7 @@
         <v>0</v>
       </c>
       <c r="G494" t="n">
-        <v>0</v>
+        <v>93316.3</v>
       </c>
       <c r="H494" t="n">
         <v>0</v>
@@ -20269,7 +20269,7 @@
         <v>0</v>
       </c>
       <c r="F495" t="n">
-        <v>0</v>
+        <v>12295.1</v>
       </c>
       <c r="G495" t="n">
         <v>0</v>
@@ -20304,10 +20304,10 @@
         <v>0</v>
       </c>
       <c r="F496" t="n">
-        <v>0</v>
+        <v>16945.3</v>
       </c>
       <c r="G496" t="n">
-        <v>0</v>
+        <v>35595</v>
       </c>
       <c r="H496" t="n">
         <v>0</v>
@@ -20339,10 +20339,10 @@
         <v>0</v>
       </c>
       <c r="F497" t="n">
-        <v>0</v>
+        <v>2573.9</v>
       </c>
       <c r="G497" t="n">
-        <v>0</v>
+        <v>10967.3</v>
       </c>
       <c r="H497" t="n">
         <v>0</v>
@@ -20374,10 +20374,10 @@
         <v>0</v>
       </c>
       <c r="F498" t="n">
-        <v>0</v>
+        <v>2070.6</v>
       </c>
       <c r="G498" t="n">
-        <v>0</v>
+        <v>1265.2</v>
       </c>
       <c r="H498" t="n">
         <v>0</v>
@@ -20412,7 +20412,7 @@
         <v>0</v>
       </c>
       <c r="G499" t="n">
-        <v>0</v>
+        <v>6303</v>
       </c>
       <c r="H499" t="n">
         <v>0</v>
@@ -20444,7 +20444,7 @@
         <v>0</v>
       </c>
       <c r="F500" t="n">
-        <v>0</v>
+        <v>27878.8</v>
       </c>
       <c r="G500" t="n">
         <v>0</v>
@@ -20479,7 +20479,7 @@
         <v>0</v>
       </c>
       <c r="F501" t="n">
-        <v>0</v>
+        <v>9151.2</v>
       </c>
       <c r="G501" t="n">
         <v>0</v>
@@ -20514,10 +20514,10 @@
         <v>0</v>
       </c>
       <c r="F502" t="n">
-        <v>0</v>
+        <v>361.5</v>
       </c>
       <c r="G502" t="n">
-        <v>0</v>
+        <v>31059.7</v>
       </c>
       <c r="H502" t="n">
         <v>0</v>
@@ -20549,10 +20549,10 @@
         <v>0</v>
       </c>
       <c r="F503" t="n">
-        <v>0</v>
+        <v>957.4</v>
       </c>
       <c r="G503" t="n">
-        <v>0</v>
+        <v>33465.3</v>
       </c>
       <c r="H503" t="n">
         <v>0</v>
@@ -20584,7 +20584,7 @@
         <v>0</v>
       </c>
       <c r="F504" t="n">
-        <v>0</v>
+        <v>1375.7</v>
       </c>
       <c r="G504" t="n">
         <v>0</v>
@@ -20619,7 +20619,7 @@
         <v>0</v>
       </c>
       <c r="F505" t="n">
-        <v>0</v>
+        <v>16031</v>
       </c>
       <c r="G505" t="n">
         <v>0</v>
@@ -20654,7 +20654,7 @@
         <v>0</v>
       </c>
       <c r="F506" t="n">
-        <v>0</v>
+        <v>17851.5</v>
       </c>
       <c r="G506" t="n">
         <v>0</v>
@@ -20692,7 +20692,7 @@
         <v>0</v>
       </c>
       <c r="G507" t="n">
-        <v>0</v>
+        <v>66913.9</v>
       </c>
       <c r="H507" t="n">
         <v>0</v>
@@ -20727,7 +20727,7 @@
         <v>0</v>
       </c>
       <c r="G508" t="n">
-        <v>0</v>
+        <v>1325.7</v>
       </c>
       <c r="H508" t="n">
         <v>0</v>
@@ -20753,7 +20753,7 @@
         <v>555</v>
       </c>
       <c r="D509" t="n">
-        <v>0</v>
+        <v>873.3</v>
       </c>
       <c r="E509" t="n">
         <v>0</v>
@@ -20794,10 +20794,10 @@
         <v>0</v>
       </c>
       <c r="F510" t="n">
-        <v>0</v>
+        <v>987.2</v>
       </c>
       <c r="G510" t="n">
-        <v>0</v>
+        <v>1325.7</v>
       </c>
       <c r="H510" t="n">
         <v>0</v>
@@ -20823,13 +20823,13 @@
         <v>557</v>
       </c>
       <c r="D511" t="n">
-        <v>0</v>
+        <v>873.3</v>
       </c>
       <c r="E511" t="n">
         <v>0</v>
       </c>
       <c r="F511" t="n">
-        <v>0</v>
+        <v>1526.4</v>
       </c>
       <c r="G511" t="n">
         <v>0</v>
@@ -20864,7 +20864,7 @@
         <v>0</v>
       </c>
       <c r="F512" t="n">
-        <v>0</v>
+        <v>365.1</v>
       </c>
       <c r="G512" t="n">
         <v>0</v>
@@ -20893,13 +20893,13 @@
         <v>559</v>
       </c>
       <c r="D513" t="n">
-        <v>0</v>
+        <v>15361.9</v>
       </c>
       <c r="E513" t="n">
         <v>0</v>
       </c>
       <c r="F513" t="n">
-        <v>0</v>
+        <v>12992.7</v>
       </c>
       <c r="G513" t="n">
         <v>0</v>
@@ -20928,7 +20928,7 @@
         <v>560</v>
       </c>
       <c r="D514" t="n">
-        <v>0</v>
+        <v>29361.8</v>
       </c>
       <c r="E514" t="n">
         <v>0</v>
@@ -20963,13 +20963,13 @@
         <v>561</v>
       </c>
       <c r="D515" t="n">
-        <v>0</v>
+        <v>2555.3</v>
       </c>
       <c r="E515" t="n">
         <v>0</v>
       </c>
       <c r="F515" t="n">
-        <v>0</v>
+        <v>2888.7</v>
       </c>
       <c r="G515" t="n">
         <v>0</v>
@@ -20998,7 +20998,7 @@
         <v>562</v>
       </c>
       <c r="D516" t="n">
-        <v>0</v>
+        <v>19271.3</v>
       </c>
       <c r="E516" t="n">
         <v>0</v>
@@ -21033,13 +21033,13 @@
         <v>563</v>
       </c>
       <c r="D517" t="n">
-        <v>0</v>
+        <v>703.4</v>
       </c>
       <c r="E517" t="n">
         <v>0</v>
       </c>
       <c r="F517" t="n">
-        <v>0</v>
+        <v>987.2</v>
       </c>
       <c r="G517" t="n">
         <v>0</v>
@@ -21103,13 +21103,13 @@
         <v>565</v>
       </c>
       <c r="D519" t="n">
-        <v>0</v>
+        <v>7751.5</v>
       </c>
       <c r="E519" t="n">
         <v>0</v>
       </c>
       <c r="F519" t="n">
-        <v>0</v>
+        <v>4046.1</v>
       </c>
       <c r="G519" t="n">
         <v>0</v>
@@ -21138,7 +21138,7 @@
         <v>566</v>
       </c>
       <c r="D520" t="n">
-        <v>0</v>
+        <v>623.9</v>
       </c>
       <c r="E520" t="n">
         <v>0</v>
@@ -21173,13 +21173,13 @@
         <v>567</v>
       </c>
       <c r="D521" t="n">
-        <v>0</v>
+        <v>2705.2</v>
       </c>
       <c r="E521" t="n">
         <v>0</v>
       </c>
       <c r="F521" t="n">
-        <v>0</v>
+        <v>4072.5</v>
       </c>
       <c r="G521" t="n">
         <v>0</v>
@@ -21278,7 +21278,7 @@
         <v>570</v>
       </c>
       <c r="D524" t="n">
-        <v>0</v>
+        <v>6863.7</v>
       </c>
       <c r="E524" t="n">
         <v>0</v>
@@ -21322,7 +21322,7 @@
         <v>0</v>
       </c>
       <c r="G525" t="n">
-        <v>0</v>
+        <v>1325.7</v>
       </c>
       <c r="H525" t="n">
         <v>0</v>
@@ -21424,10 +21424,10 @@
         <v>0</v>
       </c>
       <c r="F528" t="n">
-        <v>0</v>
+        <v>8876.3</v>
       </c>
       <c r="G528" t="n">
-        <v>0</v>
+        <v>15735.4</v>
       </c>
       <c r="H528" t="n">
         <v>0</v>
@@ -21462,7 +21462,7 @@
         <v>0</v>
       </c>
       <c r="G529" t="n">
-        <v>0</v>
+        <v>55010</v>
       </c>
       <c r="H529" t="n">
         <v>0</v>
@@ -21497,7 +21497,7 @@
         <v>0</v>
       </c>
       <c r="G530" t="n">
-        <v>0</v>
+        <v>71666.8</v>
       </c>
       <c r="H530" t="n">
         <v>0</v>
@@ -21529,10 +21529,10 @@
         <v>0</v>
       </c>
       <c r="F531" t="n">
-        <v>0</v>
+        <v>31066.5</v>
       </c>
       <c r="G531" t="n">
-        <v>0</v>
+        <v>68189.9</v>
       </c>
       <c r="H531" t="n">
         <v>0</v>
@@ -21567,7 +21567,7 @@
         <v>0</v>
       </c>
       <c r="G532" t="n">
-        <v>0</v>
+        <v>36074</v>
       </c>
       <c r="H532" t="n">
         <v>0</v>
@@ -21602,7 +21602,7 @@
         <v>0</v>
       </c>
       <c r="G533" t="n">
-        <v>0</v>
+        <v>9332.9</v>
       </c>
       <c r="H533" t="n">
         <v>0</v>
@@ -21637,7 +21637,7 @@
         <v>0</v>
       </c>
       <c r="G534" t="n">
-        <v>0</v>
+        <v>51289.4</v>
       </c>
       <c r="H534" t="n">
         <v>0</v>
@@ -21669,10 +21669,10 @@
         <v>0</v>
       </c>
       <c r="F535" t="n">
-        <v>0</v>
+        <v>4512.1</v>
       </c>
       <c r="G535" t="n">
-        <v>0</v>
+        <v>119432.7</v>
       </c>
       <c r="H535" t="n">
         <v>0</v>
@@ -21704,10 +21704,10 @@
         <v>0</v>
       </c>
       <c r="F536" t="n">
-        <v>0</v>
+        <v>3763</v>
       </c>
       <c r="G536" t="n">
-        <v>0</v>
+        <v>105014.7</v>
       </c>
       <c r="H536" t="n">
         <v>0</v>
@@ -21739,10 +21739,10 @@
         <v>0</v>
       </c>
       <c r="F537" t="n">
-        <v>0</v>
+        <v>4742.6</v>
       </c>
       <c r="G537" t="n">
-        <v>0</v>
+        <v>44976.7</v>
       </c>
       <c r="H537" t="n">
         <v>0</v>
@@ -21777,7 +21777,7 @@
         <v>0</v>
       </c>
       <c r="G538" t="n">
-        <v>0</v>
+        <v>47982.6</v>
       </c>
       <c r="H538" t="n">
         <v>0</v>
@@ -21809,10 +21809,10 @@
         <v>0</v>
       </c>
       <c r="F539" t="n">
-        <v>0</v>
+        <v>898.2</v>
       </c>
       <c r="G539" t="n">
-        <v>0</v>
+        <v>42772.5</v>
       </c>
       <c r="H539" t="n">
         <v>0</v>
@@ -21841,13 +21841,13 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>0</v>
+        <v>2211.4</v>
       </c>
       <c r="F540" t="n">
-        <v>0</v>
+        <v>8423.3</v>
       </c>
       <c r="G540" t="n">
-        <v>0</v>
+        <v>27349.3</v>
       </c>
       <c r="H540" t="n">
         <v>0</v>
@@ -21882,7 +21882,7 @@
         <v>0</v>
       </c>
       <c r="G541" t="n">
-        <v>0</v>
+        <v>81340.2</v>
       </c>
       <c r="H541" t="n">
         <v>0</v>
@@ -21917,7 +21917,7 @@
         <v>0</v>
       </c>
       <c r="G542" t="n">
-        <v>0</v>
+        <v>42299.5</v>
       </c>
       <c r="H542" t="n">
         <v>0</v>
@@ -21952,7 +21952,7 @@
         <v>0</v>
       </c>
       <c r="G543" t="n">
-        <v>0</v>
+        <v>7179</v>
       </c>
       <c r="H543" t="n">
         <v>0</v>
@@ -21987,7 +21987,7 @@
         <v>0</v>
       </c>
       <c r="G544" t="n">
-        <v>0</v>
+        <v>109461</v>
       </c>
       <c r="H544" t="n">
         <v>0</v>
@@ -22022,7 +22022,7 @@
         <v>0</v>
       </c>
       <c r="G545" t="n">
-        <v>0</v>
+        <v>108441.6</v>
       </c>
       <c r="H545" t="n">
         <v>0</v>
@@ -22057,7 +22057,7 @@
         <v>0</v>
       </c>
       <c r="G546" t="n">
-        <v>0</v>
+        <v>6938.4</v>
       </c>
       <c r="H546" t="n">
         <v>0</v>
@@ -22092,7 +22092,7 @@
         <v>0</v>
       </c>
       <c r="G547" t="n">
-        <v>0</v>
+        <v>70330.3</v>
       </c>
       <c r="H547" t="n">
         <v>0</v>
@@ -22127,7 +22127,7 @@
         <v>0</v>
       </c>
       <c r="G548" t="n">
-        <v>0</v>
+        <v>103188.7</v>
       </c>
       <c r="H548" t="n">
         <v>0</v>
@@ -22159,10 +22159,10 @@
         <v>0</v>
       </c>
       <c r="F549" t="n">
-        <v>0</v>
+        <v>34391</v>
       </c>
       <c r="G549" t="n">
-        <v>0</v>
+        <v>43776.8</v>
       </c>
       <c r="H549" t="n">
         <v>0</v>
@@ -22197,7 +22197,7 @@
         <v>0</v>
       </c>
       <c r="G550" t="n">
-        <v>0</v>
+        <v>108144.9</v>
       </c>
       <c r="H550" t="n">
         <v>0</v>
@@ -22232,7 +22232,7 @@
         <v>0</v>
       </c>
       <c r="G551" t="n">
-        <v>0</v>
+        <v>90613.2</v>
       </c>
       <c r="H551" t="n">
         <v>0</v>
@@ -22267,7 +22267,7 @@
         <v>0</v>
       </c>
       <c r="G552" t="n">
-        <v>0</v>
+        <v>117126.7</v>
       </c>
       <c r="H552" t="n">
         <v>0</v>
@@ -22296,13 +22296,13 @@
         <v>0</v>
       </c>
       <c r="E553" t="n">
-        <v>0</v>
+        <v>2775.8</v>
       </c>
       <c r="F553" t="n">
         <v>0</v>
       </c>
       <c r="G553" t="n">
-        <v>0</v>
+        <v>167216.1</v>
       </c>
       <c r="H553" t="n">
         <v>0</v>
@@ -22337,7 +22337,7 @@
         <v>0</v>
       </c>
       <c r="G554" t="n">
-        <v>0</v>
+        <v>146020.2</v>
       </c>
       <c r="H554" t="n">
         <v>0</v>
@@ -22372,7 +22372,7 @@
         <v>0</v>
       </c>
       <c r="G555" t="n">
-        <v>0</v>
+        <v>179171.4</v>
       </c>
       <c r="H555" t="n">
         <v>0</v>
@@ -22407,7 +22407,7 @@
         <v>0</v>
       </c>
       <c r="G556" t="n">
-        <v>0</v>
+        <v>189896.9</v>
       </c>
       <c r="H556" t="n">
         <v>0</v>
@@ -22436,13 +22436,13 @@
         <v>0</v>
       </c>
       <c r="E557" t="n">
-        <v>0</v>
+        <v>5435.4</v>
       </c>
       <c r="F557" t="n">
         <v>0</v>
       </c>
       <c r="G557" t="n">
-        <v>0</v>
+        <v>193476.4</v>
       </c>
       <c r="H557" t="n">
         <v>0</v>
@@ -22474,10 +22474,10 @@
         <v>0</v>
       </c>
       <c r="F558" t="n">
-        <v>0</v>
+        <v>31633.7</v>
       </c>
       <c r="G558" t="n">
-        <v>0</v>
+        <v>43503</v>
       </c>
       <c r="H558" t="n">
         <v>0</v>
@@ -22509,10 +22509,10 @@
         <v>0</v>
       </c>
       <c r="F559" t="n">
-        <v>0</v>
+        <v>27474.4</v>
       </c>
       <c r="G559" t="n">
-        <v>0</v>
+        <v>78014.8</v>
       </c>
       <c r="H559" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="G560" t="n">
-        <v>0</v>
+        <v>138695.3</v>
       </c>
       <c r="H560" t="n">
         <v>0</v>
@@ -22582,7 +22582,7 @@
         <v>0</v>
       </c>
       <c r="G561" t="n">
-        <v>0</v>
+        <v>120362</v>
       </c>
       <c r="H561" t="n">
         <v>0</v>
@@ -22614,10 +22614,10 @@
         <v>0</v>
       </c>
       <c r="F562" t="n">
-        <v>0</v>
+        <v>10939.3</v>
       </c>
       <c r="G562" t="n">
-        <v>0</v>
+        <v>200539.6</v>
       </c>
       <c r="H562" t="n">
         <v>0</v>
@@ -22649,10 +22649,10 @@
         <v>0</v>
       </c>
       <c r="F563" t="n">
-        <v>0</v>
+        <v>5270</v>
       </c>
       <c r="G563" t="n">
-        <v>0</v>
+        <v>2067.9</v>
       </c>
       <c r="H563" t="n">
         <v>0</v>
@@ -22684,10 +22684,10 @@
         <v>0</v>
       </c>
       <c r="F564" t="n">
-        <v>0</v>
+        <v>21267.4</v>
       </c>
       <c r="G564" t="n">
-        <v>0</v>
+        <v>2067.9</v>
       </c>
       <c r="H564" t="n">
         <v>0</v>
@@ -22722,7 +22722,7 @@
         <v>0</v>
       </c>
       <c r="G565" t="n">
-        <v>0</v>
+        <v>78728.1</v>
       </c>
       <c r="H565" t="n">
         <v>0</v>
@@ -22757,7 +22757,7 @@
         <v>0</v>
       </c>
       <c r="G566" t="n">
-        <v>0</v>
+        <v>24192.5</v>
       </c>
       <c r="H566" t="n">
         <v>0</v>
@@ -22792,7 +22792,7 @@
         <v>0</v>
       </c>
       <c r="G567" t="n">
-        <v>0</v>
+        <v>1387.4</v>
       </c>
       <c r="H567" t="n">
         <v>0</v>
@@ -22818,13 +22818,13 @@
         <v>614</v>
       </c>
       <c r="D568" t="n">
-        <v>0</v>
+        <v>5988.8</v>
       </c>
       <c r="E568" t="n">
         <v>0</v>
       </c>
       <c r="F568" t="n">
-        <v>0</v>
+        <v>24848.3</v>
       </c>
       <c r="G568" t="n">
         <v>0</v>
@@ -22853,16 +22853,16 @@
         <v>615</v>
       </c>
       <c r="D569" t="n">
-        <v>0</v>
+        <v>4367.9</v>
       </c>
       <c r="E569" t="n">
         <v>0</v>
       </c>
       <c r="F569" t="n">
-        <v>0</v>
+        <v>13329.4</v>
       </c>
       <c r="G569" t="n">
-        <v>0</v>
+        <v>14367.3</v>
       </c>
       <c r="H569" t="n">
         <v>19.127</v>
@@ -22888,13 +22888,13 @@
         <v>616</v>
       </c>
       <c r="D570" t="n">
-        <v>0</v>
+        <v>4974.5</v>
       </c>
       <c r="E570" t="n">
         <v>0</v>
       </c>
       <c r="F570" t="n">
-        <v>0</v>
+        <v>16543.1</v>
       </c>
       <c r="G570" t="n">
         <v>0</v>
@@ -22923,13 +22923,13 @@
         <v>617</v>
       </c>
       <c r="D571" t="n">
-        <v>0</v>
+        <v>4949.2</v>
       </c>
       <c r="E571" t="n">
         <v>0</v>
       </c>
       <c r="F571" t="n">
-        <v>0</v>
+        <v>1998.2</v>
       </c>
       <c r="G571" t="n">
         <v>0</v>
@@ -22958,7 +22958,7 @@
         <v>618</v>
       </c>
       <c r="D572" t="n">
-        <v>0</v>
+        <v>46765.3</v>
       </c>
       <c r="E572" t="n">
         <v>0</v>
@@ -22993,13 +22993,13 @@
         <v>619</v>
       </c>
       <c r="D573" t="n">
-        <v>0</v>
+        <v>22656.9</v>
       </c>
       <c r="E573" t="n">
         <v>0</v>
       </c>
       <c r="F573" t="n">
-        <v>0</v>
+        <v>5149.5</v>
       </c>
       <c r="G573" t="n">
         <v>0</v>
@@ -23028,13 +23028,13 @@
         <v>620</v>
       </c>
       <c r="D574" t="n">
-        <v>0</v>
+        <v>4696.7</v>
       </c>
       <c r="E574" t="n">
         <v>0</v>
       </c>
       <c r="F574" t="n">
-        <v>0</v>
+        <v>1998.2</v>
       </c>
       <c r="G574" t="n">
         <v>0</v>
@@ -23069,7 +23069,7 @@
         <v>0</v>
       </c>
       <c r="F575" t="n">
-        <v>0</v>
+        <v>5421.5</v>
       </c>
       <c r="G575" t="n">
         <v>0</v>
@@ -23107,7 +23107,7 @@
         <v>0</v>
       </c>
       <c r="G576" t="n">
-        <v>0</v>
+        <v>29244.1</v>
       </c>
       <c r="H576" t="n">
         <v>0</v>
@@ -23139,10 +23139,10 @@
         <v>0</v>
       </c>
       <c r="F577" t="n">
-        <v>0</v>
+        <v>6754.1</v>
       </c>
       <c r="G577" t="n">
-        <v>0</v>
+        <v>24579.3</v>
       </c>
       <c r="H577" t="n">
         <v>0</v>
@@ -23168,13 +23168,13 @@
         <v>624</v>
       </c>
       <c r="D578" t="n">
-        <v>0</v>
+        <v>24291.2</v>
       </c>
       <c r="E578" t="n">
         <v>0</v>
       </c>
       <c r="F578" t="n">
-        <v>0</v>
+        <v>21040.5</v>
       </c>
       <c r="G578" t="n">
         <v>0</v>
@@ -23209,10 +23209,10 @@
         <v>0</v>
       </c>
       <c r="F579" t="n">
-        <v>0</v>
+        <v>18209.9</v>
       </c>
       <c r="G579" t="n">
-        <v>0</v>
+        <v>27645.7</v>
       </c>
       <c r="H579" t="n">
         <v>0</v>
@@ -23238,13 +23238,13 @@
         <v>626</v>
       </c>
       <c r="D580" t="n">
-        <v>0</v>
+        <v>8020.3</v>
       </c>
       <c r="E580" t="n">
         <v>0</v>
       </c>
       <c r="F580" t="n">
-        <v>0</v>
+        <v>3591.4</v>
       </c>
       <c r="G580" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>627</v>
       </c>
       <c r="D581" t="n">
-        <v>0</v>
+        <v>20258.2</v>
       </c>
       <c r="E581" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>628</v>
       </c>
       <c r="D582" t="n">
-        <v>0</v>
+        <v>2994.5</v>
       </c>
       <c r="E582" t="n">
         <v>0</v>
       </c>
       <c r="F582" t="n">
-        <v>0</v>
+        <v>3828.3</v>
       </c>
       <c r="G582" t="n">
         <v>0</v>
@@ -23343,13 +23343,13 @@
         <v>629</v>
       </c>
       <c r="D583" t="n">
-        <v>0</v>
+        <v>19607.4</v>
       </c>
       <c r="E583" t="n">
         <v>0</v>
       </c>
       <c r="F583" t="n">
-        <v>0</v>
+        <v>5437.1</v>
       </c>
       <c r="G583" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="F584" t="n">
-        <v>0</v>
+        <v>2613.4</v>
       </c>
       <c r="G584" t="n">
-        <v>0</v>
+        <v>67202.9</v>
       </c>
       <c r="H584" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="F585" t="n">
-        <v>0</v>
+        <v>13952.3</v>
       </c>
       <c r="G585" t="n">
-        <v>0</v>
+        <v>18487</v>
       </c>
       <c r="H585" t="n">
         <v>0</v>
@@ -23448,16 +23448,16 @@
         <v>633</v>
       </c>
       <c r="D586" t="n">
-        <v>0</v>
+        <v>3780.2</v>
       </c>
       <c r="E586" t="n">
         <v>0</v>
       </c>
       <c r="F586" t="n">
-        <v>0</v>
+        <v>36352.4</v>
       </c>
       <c r="G586" t="n">
-        <v>0</v>
+        <v>7971.6</v>
       </c>
       <c r="H586" t="n">
         <v>24.983</v>
@@ -23483,13 +23483,13 @@
         <v>634</v>
       </c>
       <c r="D587" t="n">
-        <v>0</v>
+        <v>4536.2</v>
       </c>
       <c r="E587" t="n">
         <v>0</v>
       </c>
       <c r="F587" t="n">
-        <v>0</v>
+        <v>28292.8</v>
       </c>
       <c r="G587" t="n">
         <v>0</v>
@@ -23524,10 +23524,10 @@
         <v>0</v>
       </c>
       <c r="F588" t="n">
-        <v>0</v>
+        <v>8227.4</v>
       </c>
       <c r="G588" t="n">
-        <v>0</v>
+        <v>15715.9</v>
       </c>
       <c r="H588" t="n">
         <v>0</v>
@@ -23553,16 +23553,16 @@
         <v>636</v>
       </c>
       <c r="D589" t="n">
-        <v>0</v>
+        <v>7549.8</v>
       </c>
       <c r="E589" t="n">
         <v>0</v>
       </c>
       <c r="F589" t="n">
-        <v>0</v>
+        <v>19352.5</v>
       </c>
       <c r="G589" t="n">
-        <v>0</v>
+        <v>3842.5</v>
       </c>
       <c r="H589" t="n">
         <v>0</v>
@@ -23588,16 +23588,16 @@
         <v>637</v>
       </c>
       <c r="D590" t="n">
-        <v>0</v>
+        <v>26577.3</v>
       </c>
       <c r="E590" t="n">
-        <v>0</v>
+        <v>3861.6</v>
       </c>
       <c r="F590" t="n">
-        <v>0</v>
+        <v>27115.3</v>
       </c>
       <c r="G590" t="n">
-        <v>0</v>
+        <v>3869.5</v>
       </c>
       <c r="H590" t="n">
         <v>28.768</v>
@@ -23623,16 +23623,16 @@
         <v>638</v>
       </c>
       <c r="D591" t="n">
-        <v>0</v>
+        <v>19167.2</v>
       </c>
       <c r="E591" t="n">
         <v>0</v>
       </c>
       <c r="F591" t="n">
-        <v>0</v>
+        <v>7404.4</v>
       </c>
       <c r="G591" t="n">
-        <v>0</v>
+        <v>3678</v>
       </c>
       <c r="H591" t="n">
         <v>43.853</v>
@@ -23658,7 +23658,7 @@
         <v>639</v>
       </c>
       <c r="D592" t="n">
-        <v>0</v>
+        <v>24955.6</v>
       </c>
       <c r="E592" t="n">
         <v>0</v>
@@ -23693,13 +23693,13 @@
         <v>640</v>
       </c>
       <c r="D593" t="n">
-        <v>0</v>
+        <v>98136.4</v>
       </c>
       <c r="E593" t="n">
         <v>0</v>
       </c>
       <c r="F593" t="n">
-        <v>0</v>
+        <v>8437.4</v>
       </c>
       <c r="G593" t="n">
         <v>0</v>
@@ -23728,16 +23728,16 @@
         <v>641</v>
       </c>
       <c r="D594" t="n">
-        <v>0</v>
+        <v>10902.6</v>
       </c>
       <c r="E594" t="n">
         <v>0</v>
       </c>
       <c r="F594" t="n">
-        <v>0</v>
+        <v>3829.6</v>
       </c>
       <c r="G594" t="n">
-        <v>0</v>
+        <v>7516.7</v>
       </c>
       <c r="H594" t="n">
         <v>0</v>
@@ -23763,7 +23763,7 @@
         <v>642</v>
       </c>
       <c r="D595" t="n">
-        <v>0</v>
+        <v>49399.1</v>
       </c>
       <c r="E595" t="n">
         <v>0</v>
@@ -23798,13 +23798,13 @@
         <v>643</v>
       </c>
       <c r="D596" t="n">
-        <v>0</v>
+        <v>10281.6</v>
       </c>
       <c r="E596" t="n">
         <v>0</v>
       </c>
       <c r="F596" t="n">
-        <v>0</v>
+        <v>3327.9</v>
       </c>
       <c r="G596" t="n">
         <v>0</v>
@@ -23833,7 +23833,7 @@
         <v>644</v>
       </c>
       <c r="D597" t="n">
-        <v>0</v>
+        <v>55952.1</v>
       </c>
       <c r="E597" t="n">
         <v>0</v>
@@ -23868,7 +23868,7 @@
         <v>645</v>
       </c>
       <c r="D598" t="n">
-        <v>0</v>
+        <v>115772.1</v>
       </c>
       <c r="E598" t="n">
         <v>0</v>
@@ -23903,7 +23903,7 @@
         <v>646</v>
       </c>
       <c r="D599" t="n">
-        <v>0</v>
+        <v>53309.4</v>
       </c>
       <c r="E599" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>647</v>
       </c>
       <c r="D600" t="n">
-        <v>0</v>
+        <v>30702.5</v>
       </c>
       <c r="E600" t="n">
         <v>0</v>
@@ -23973,13 +23973,13 @@
         <v>648</v>
       </c>
       <c r="D601" t="n">
-        <v>0</v>
+        <v>30393.3</v>
       </c>
       <c r="E601" t="n">
         <v>0</v>
       </c>
       <c r="F601" t="n">
-        <v>0</v>
+        <v>9186.5</v>
       </c>
       <c r="G601" t="n">
         <v>0</v>
@@ -24008,16 +24008,16 @@
         <v>649</v>
       </c>
       <c r="D602" t="n">
-        <v>0</v>
+        <v>29352.8</v>
       </c>
       <c r="E602" t="n">
         <v>0</v>
       </c>
       <c r="F602" t="n">
-        <v>0</v>
+        <v>52564.7</v>
       </c>
       <c r="G602" t="n">
-        <v>0</v>
+        <v>22294</v>
       </c>
       <c r="H602" t="n">
         <v>36.439</v>
@@ -24043,16 +24043,16 @@
         <v>650</v>
       </c>
       <c r="D603" t="n">
-        <v>0</v>
+        <v>26806.2</v>
       </c>
       <c r="E603" t="n">
-        <v>0</v>
+        <v>3861.6</v>
       </c>
       <c r="F603" t="n">
-        <v>0</v>
+        <v>11791.2</v>
       </c>
       <c r="G603" t="n">
-        <v>0</v>
+        <v>23860.2</v>
       </c>
       <c r="H603" t="n">
         <v>18.123</v>
@@ -24078,16 +24078,16 @@
         <v>652</v>
       </c>
       <c r="D604" t="n">
-        <v>0</v>
+        <v>26893.8</v>
       </c>
       <c r="E604" t="n">
-        <v>0</v>
+        <v>2796.2</v>
       </c>
       <c r="F604" t="n">
-        <v>0</v>
+        <v>35868.8</v>
       </c>
       <c r="G604" t="n">
-        <v>0</v>
+        <v>28685.6</v>
       </c>
       <c r="H604" t="n">
         <v>39.799</v>
@@ -24113,16 +24113,16 @@
         <v>653</v>
       </c>
       <c r="D605" t="n">
-        <v>0</v>
+        <v>3450</v>
       </c>
       <c r="E605" t="n">
         <v>0</v>
       </c>
       <c r="F605" t="n">
-        <v>0</v>
+        <v>26866.3</v>
       </c>
       <c r="G605" t="n">
-        <v>0</v>
+        <v>11835</v>
       </c>
       <c r="H605" t="n">
         <v>0</v>
@@ -24154,10 +24154,10 @@
         <v>0</v>
       </c>
       <c r="F606" t="n">
-        <v>0</v>
+        <v>11534.9</v>
       </c>
       <c r="G606" t="n">
-        <v>0</v>
+        <v>33429.8</v>
       </c>
       <c r="H606" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="F607" t="n">
-        <v>0</v>
+        <v>18069.3</v>
       </c>
       <c r="G607" t="n">
         <v>0</v>
@@ -24224,7 +24224,7 @@
         <v>0</v>
       </c>
       <c r="F608" t="n">
-        <v>0</v>
+        <v>14855</v>
       </c>
       <c r="G608" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>657</v>
       </c>
       <c r="D609" t="n">
-        <v>0</v>
+        <v>3688.2</v>
       </c>
       <c r="E609" t="n">
-        <v>0</v>
+        <v>3752.8</v>
       </c>
       <c r="F609" t="n">
-        <v>0</v>
+        <v>11052.9</v>
       </c>
       <c r="G609" t="n">
         <v>0</v>
@@ -24294,7 +24294,7 @@
         <v>0</v>
       </c>
       <c r="F610" t="n">
-        <v>0</v>
+        <v>3841.5</v>
       </c>
       <c r="G610" t="n">
         <v>0</v>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="F611" t="n">
-        <v>0</v>
+        <v>15423.7</v>
       </c>
       <c r="G611" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="F612" t="n">
-        <v>0</v>
+        <v>13895.5</v>
       </c>
       <c r="G612" t="n">
-        <v>0</v>
+        <v>15045.7</v>
       </c>
       <c r="H612" t="n">
         <v>0</v>
@@ -24399,10 +24399,10 @@
         <v>0</v>
       </c>
       <c r="F613" t="n">
-        <v>0</v>
+        <v>19852.9</v>
       </c>
       <c r="G613" t="n">
-        <v>0</v>
+        <v>24924.7</v>
       </c>
       <c r="H613" t="n">
         <v>0</v>
@@ -24437,7 +24437,7 @@
         <v>0</v>
       </c>
       <c r="G614" t="n">
-        <v>0</v>
+        <v>7041.9</v>
       </c>
       <c r="H614" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>663</v>
       </c>
       <c r="D615" t="n">
-        <v>0</v>
+        <v>1808.4</v>
       </c>
       <c r="E615" t="n">
         <v>0</v>
@@ -24472,7 +24472,7 @@
         <v>0</v>
       </c>
       <c r="G615" t="n">
-        <v>0</v>
+        <v>5567.4</v>
       </c>
       <c r="H615" t="n">
         <v>0</v>
@@ -24498,7 +24498,7 @@
         <v>664</v>
       </c>
       <c r="D616" t="n">
-        <v>0</v>
+        <v>14440.3</v>
       </c>
       <c r="E616" t="n">
         <v>0</v>
@@ -24507,7 +24507,7 @@
         <v>0</v>
       </c>
       <c r="G616" t="n">
-        <v>0</v>
+        <v>21927.7</v>
       </c>
       <c r="H616" t="n">
         <v>34.448</v>
@@ -24533,16 +24533,16 @@
         <v>665</v>
       </c>
       <c r="D617" t="n">
-        <v>0</v>
+        <v>15840</v>
       </c>
       <c r="E617" t="n">
         <v>0</v>
       </c>
       <c r="F617" t="n">
-        <v>0</v>
+        <v>7626.6</v>
       </c>
       <c r="G617" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="H617" t="n">
         <v>62.512</v>
@@ -24574,7 +24574,7 @@
         <v>0</v>
       </c>
       <c r="F618" t="n">
-        <v>0</v>
+        <v>16173.7</v>
       </c>
       <c r="G618" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>541</v>
       </c>
       <c r="D619" t="n">
-        <v>0</v>
+        <v>3688.2</v>
       </c>
       <c r="E619" t="n">
         <v>0</v>
       </c>
       <c r="F619" t="n">
-        <v>0</v>
+        <v>11251.4</v>
       </c>
       <c r="G619" t="n">
         <v>0</v>
@@ -24644,7 +24644,7 @@
         <v>0</v>
       </c>
       <c r="F620" t="n">
-        <v>0</v>
+        <v>23360.8</v>
       </c>
       <c r="G620" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="G621" t="n">
-        <v>0</v>
+        <v>3641.2</v>
       </c>
       <c r="H621" t="n">
         <v>0</v>
@@ -24717,7 +24717,7 @@
         <v>0</v>
       </c>
       <c r="G622" t="n">
-        <v>0</v>
+        <v>7226.9</v>
       </c>
       <c r="H622" t="n">
         <v>0</v>
@@ -24749,10 +24749,10 @@
         <v>0</v>
       </c>
       <c r="F623" t="n">
-        <v>0</v>
+        <v>3585.2</v>
       </c>
       <c r="G623" t="n">
-        <v>0</v>
+        <v>3784.9</v>
       </c>
       <c r="H623" t="n">
         <v>0</v>
@@ -24784,10 +24784,10 @@
         <v>0</v>
       </c>
       <c r="F624" t="n">
-        <v>0</v>
+        <v>3506.4</v>
       </c>
       <c r="G624" t="n">
-        <v>0</v>
+        <v>10520.6</v>
       </c>
       <c r="H624" t="n">
         <v>0</v>
@@ -24813,13 +24813,13 @@
         <v>671</v>
       </c>
       <c r="D625" t="n">
-        <v>0</v>
+        <v>3624</v>
       </c>
       <c r="E625" t="n">
         <v>0</v>
       </c>
       <c r="F625" t="n">
-        <v>0</v>
+        <v>2841.8</v>
       </c>
       <c r="G625" t="n">
         <v>0</v>
@@ -24854,10 +24854,10 @@
         <v>0</v>
       </c>
       <c r="F626" t="n">
-        <v>0</v>
+        <v>10680.9</v>
       </c>
       <c r="G626" t="n">
-        <v>0</v>
+        <v>3521.4</v>
       </c>
       <c r="H626" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>673</v>
       </c>
       <c r="D627" t="n">
-        <v>0</v>
+        <v>3688.2</v>
       </c>
       <c r="E627" t="n">
-        <v>0</v>
+        <v>7485</v>
       </c>
       <c r="F627" t="n">
-        <v>0</v>
+        <v>14820</v>
       </c>
       <c r="G627" t="n">
-        <v>0</v>
+        <v>3617.4</v>
       </c>
       <c r="H627" t="n">
         <v>0</v>
@@ -24924,7 +24924,7 @@
         <v>0</v>
       </c>
       <c r="F628" t="n">
-        <v>0</v>
+        <v>22186.6</v>
       </c>
       <c r="G628" t="n">
         <v>0</v>
@@ -24959,10 +24959,10 @@
         <v>0</v>
       </c>
       <c r="F629" t="n">
-        <v>0</v>
+        <v>10736.4</v>
       </c>
       <c r="G629" t="n">
-        <v>0</v>
+        <v>10714.6</v>
       </c>
       <c r="H629" t="n">
         <v>0</v>
@@ -24994,7 +24994,7 @@
         <v>0</v>
       </c>
       <c r="F630" t="n">
-        <v>0</v>
+        <v>7567.3</v>
       </c>
       <c r="G630" t="n">
         <v>0</v>
@@ -25023,16 +25023,16 @@
         <v>677</v>
       </c>
       <c r="D631" t="n">
-        <v>0</v>
+        <v>3450</v>
       </c>
       <c r="E631" t="n">
         <v>0</v>
       </c>
       <c r="F631" t="n">
-        <v>0</v>
+        <v>27090.2</v>
       </c>
       <c r="G631" t="n">
-        <v>0</v>
+        <v>15592.5</v>
       </c>
       <c r="H631" t="n">
         <v>13.603</v>
@@ -25064,10 +25064,10 @@
         <v>0</v>
       </c>
       <c r="F632" t="n">
-        <v>0</v>
+        <v>9933.6</v>
       </c>
       <c r="G632" t="n">
-        <v>0</v>
+        <v>3784.9</v>
       </c>
       <c r="H632" t="n">
         <v>0</v>
@@ -25102,7 +25102,7 @@
         <v>0</v>
       </c>
       <c r="G633" t="n">
-        <v>0</v>
+        <v>3792.2</v>
       </c>
       <c r="H633" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="F634" t="n">
-        <v>0</v>
+        <v>3369.4</v>
       </c>
       <c r="G634" t="n">
-        <v>0</v>
+        <v>35687.1</v>
       </c>
       <c r="H634" t="n">
         <v>0</v>
@@ -25169,10 +25169,10 @@
         <v>0</v>
       </c>
       <c r="F635" t="n">
-        <v>0</v>
+        <v>12462.1</v>
       </c>
       <c r="G635" t="n">
-        <v>0</v>
+        <v>17464.1</v>
       </c>
       <c r="H635" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="F636" t="n">
-        <v>0</v>
+        <v>18108.8</v>
       </c>
       <c r="G636" t="n">
-        <v>0</v>
+        <v>30769.6</v>
       </c>
       <c r="H636" t="n">
         <v>0</v>
@@ -25239,10 +25239,10 @@
         <v>0</v>
       </c>
       <c r="F637" t="n">
-        <v>0</v>
+        <v>4163.5</v>
       </c>
       <c r="G637" t="n">
-        <v>0</v>
+        <v>46075.7</v>
       </c>
       <c r="H637" t="n">
         <v>0</v>
@@ -25268,7 +25268,7 @@
         <v>685</v>
       </c>
       <c r="D638" t="n">
-        <v>0</v>
+        <v>3450.6</v>
       </c>
       <c r="E638" t="n">
         <v>0</v>
@@ -25277,7 +25277,7 @@
         <v>0</v>
       </c>
       <c r="G638" t="n">
-        <v>0</v>
+        <v>6778.6</v>
       </c>
       <c r="H638" t="n">
         <v>33.629</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="G639" t="n">
-        <v>0</v>
+        <v>1099.1</v>
       </c>
       <c r="H639" t="n">
         <v>0</v>
@@ -25347,7 +25347,7 @@
         <v>0</v>
       </c>
       <c r="G640" t="n">
-        <v>0</v>
+        <v>975.6</v>
       </c>
       <c r="H640" t="n">
         <v>0</v>
@@ -25382,7 +25382,7 @@
         <v>0</v>
       </c>
       <c r="G641" t="n">
-        <v>0</v>
+        <v>1696.8</v>
       </c>
       <c r="H641" t="n">
         <v>0</v>
@@ -25417,7 +25417,7 @@
         <v>0</v>
       </c>
       <c r="G642" t="n">
-        <v>0</v>
+        <v>975.6</v>
       </c>
       <c r="H642" t="n">
         <v>0</v>
@@ -25452,7 +25452,7 @@
         <v>0</v>
       </c>
       <c r="G643" t="n">
-        <v>0</v>
+        <v>1236.8</v>
       </c>
       <c r="H643" t="n">
         <v>0</v>
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="G644" t="n">
-        <v>0</v>
+        <v>24605.4</v>
       </c>
       <c r="H644" t="n">
         <v>0</v>
@@ -25522,7 +25522,7 @@
         <v>0</v>
       </c>
       <c r="G645" t="n">
-        <v>0</v>
+        <v>42735.3</v>
       </c>
       <c r="H645" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="G646" t="n">
-        <v>0</v>
+        <v>38948.8</v>
       </c>
       <c r="H646" t="n">
         <v>0</v>
@@ -25589,10 +25589,10 @@
         <v>0</v>
       </c>
       <c r="F647" t="n">
-        <v>0</v>
+        <v>4314.2</v>
       </c>
       <c r="G647" t="n">
-        <v>0</v>
+        <v>47439.9</v>
       </c>
       <c r="H647" t="n">
         <v>0</v>
@@ -25624,10 +25624,10 @@
         <v>0</v>
       </c>
       <c r="F648" t="n">
-        <v>0</v>
+        <v>2851.7</v>
       </c>
       <c r="G648" t="n">
-        <v>0</v>
+        <v>18428.6</v>
       </c>
       <c r="H648" t="n">
         <v>0</v>
@@ -25662,7 +25662,7 @@
         <v>0</v>
       </c>
       <c r="G649" t="n">
-        <v>0</v>
+        <v>56856.5</v>
       </c>
       <c r="H649" t="n">
         <v>0</v>
@@ -25694,10 +25694,10 @@
         <v>0</v>
       </c>
       <c r="F650" t="n">
-        <v>0</v>
+        <v>1812.7</v>
       </c>
       <c r="G650" t="n">
-        <v>0</v>
+        <v>47775</v>
       </c>
       <c r="H650" t="n">
         <v>0</v>
@@ -25732,7 +25732,7 @@
         <v>0</v>
       </c>
       <c r="G651" t="n">
-        <v>0</v>
+        <v>46842.7</v>
       </c>
       <c r="H651" t="n">
         <v>0</v>
@@ -25767,7 +25767,7 @@
         <v>0</v>
       </c>
       <c r="G652" t="n">
-        <v>0</v>
+        <v>33841.3</v>
       </c>
       <c r="H652" t="n">
         <v>0</v>
@@ -25799,10 +25799,10 @@
         <v>0</v>
       </c>
       <c r="F653" t="n">
-        <v>0</v>
+        <v>12742.5</v>
       </c>
       <c r="G653" t="n">
-        <v>0</v>
+        <v>8410.1</v>
       </c>
       <c r="H653" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="F654" t="n">
-        <v>0</v>
+        <v>3530.4</v>
       </c>
       <c r="G654" t="n">
-        <v>0</v>
+        <v>3368</v>
       </c>
       <c r="H654" t="n">
         <v>0</v>
@@ -25869,10 +25869,10 @@
         <v>0</v>
       </c>
       <c r="F655" t="n">
-        <v>0</v>
+        <v>3530.4</v>
       </c>
       <c r="G655" t="n">
-        <v>0</v>
+        <v>3237</v>
       </c>
       <c r="H655" t="n">
         <v>0</v>
@@ -25904,10 +25904,10 @@
         <v>0</v>
       </c>
       <c r="F656" t="n">
-        <v>0</v>
+        <v>15743.2</v>
       </c>
       <c r="G656" t="n">
-        <v>0</v>
+        <v>19921</v>
       </c>
       <c r="H656" t="n">
         <v>0</v>
@@ -25939,10 +25939,10 @@
         <v>0</v>
       </c>
       <c r="F657" t="n">
-        <v>0</v>
+        <v>15500.1</v>
       </c>
       <c r="G657" t="n">
-        <v>0</v>
+        <v>596.2</v>
       </c>
       <c r="H657" t="n">
         <v>0</v>
@@ -25968,13 +25968,13 @@
         <v>705</v>
       </c>
       <c r="D658" t="n">
-        <v>0</v>
+        <v>7179</v>
       </c>
       <c r="E658" t="n">
         <v>0</v>
       </c>
       <c r="F658" t="n">
-        <v>0</v>
+        <v>15665.4</v>
       </c>
       <c r="G658" t="n">
         <v>0</v>
@@ -26003,16 +26003,16 @@
         <v>706</v>
       </c>
       <c r="D659" t="n">
-        <v>0</v>
+        <v>10022.4</v>
       </c>
       <c r="E659" t="n">
         <v>0</v>
       </c>
       <c r="F659" t="n">
-        <v>0</v>
+        <v>2327</v>
       </c>
       <c r="G659" t="n">
-        <v>0</v>
+        <v>2057.5</v>
       </c>
       <c r="H659" t="n">
         <v>43.72</v>
@@ -26044,10 +26044,10 @@
         <v>0</v>
       </c>
       <c r="F660" t="n">
-        <v>0</v>
+        <v>10144.3</v>
       </c>
       <c r="G660" t="n">
-        <v>0</v>
+        <v>12036.7</v>
       </c>
       <c r="H660" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="F661" t="n">
-        <v>0</v>
+        <v>31191.6</v>
       </c>
       <c r="G661" t="n">
-        <v>0</v>
+        <v>27742</v>
       </c>
       <c r="H661" t="n">
         <v>0</v>
@@ -26117,7 +26117,7 @@
         <v>0</v>
       </c>
       <c r="G662" t="n">
-        <v>0</v>
+        <v>9797.1</v>
       </c>
       <c r="H662" t="n">
         <v>0</v>
@@ -26152,7 +26152,7 @@
         <v>0</v>
       </c>
       <c r="G663" t="n">
-        <v>0</v>
+        <v>33563.2</v>
       </c>
       <c r="H663" t="n">
         <v>0</v>
@@ -26184,10 +26184,10 @@
         <v>0</v>
       </c>
       <c r="F664" t="n">
-        <v>0</v>
+        <v>16281.1</v>
       </c>
       <c r="G664" t="n">
-        <v>0</v>
+        <v>19919.1</v>
       </c>
       <c r="H664" t="n">
         <v>0</v>
@@ -26219,10 +26219,10 @@
         <v>0</v>
       </c>
       <c r="F665" t="n">
-        <v>0</v>
+        <v>1365.1</v>
       </c>
       <c r="G665" t="n">
-        <v>0</v>
+        <v>44251</v>
       </c>
       <c r="H665" t="n">
         <v>0</v>
@@ -26254,10 +26254,10 @@
         <v>0</v>
       </c>
       <c r="F666" t="n">
-        <v>0</v>
+        <v>33937.3</v>
       </c>
       <c r="G666" t="n">
-        <v>0</v>
+        <v>8258.5</v>
       </c>
       <c r="H666" t="n">
         <v>0</v>
@@ -26286,13 +26286,13 @@
         <v>0</v>
       </c>
       <c r="E667" t="n">
-        <v>0</v>
+        <v>6652.4</v>
       </c>
       <c r="F667" t="n">
         <v>0</v>
       </c>
       <c r="G667" t="n">
-        <v>0</v>
+        <v>78384</v>
       </c>
       <c r="H667" t="n">
         <v>0</v>
@@ -26321,13 +26321,13 @@
         <v>0</v>
       </c>
       <c r="E668" t="n">
-        <v>0</v>
+        <v>9236.1</v>
       </c>
       <c r="F668" t="n">
         <v>0</v>
       </c>
       <c r="G668" t="n">
-        <v>0</v>
+        <v>87811</v>
       </c>
       <c r="H668" t="n">
         <v>0</v>
@@ -26356,13 +26356,13 @@
         <v>0</v>
       </c>
       <c r="E669" t="n">
-        <v>0</v>
+        <v>13443.6</v>
       </c>
       <c r="F669" t="n">
-        <v>0</v>
+        <v>1861.6</v>
       </c>
       <c r="G669" t="n">
-        <v>0</v>
+        <v>59788.2</v>
       </c>
       <c r="H669" t="n">
         <v>0</v>
@@ -26397,7 +26397,7 @@
         <v>0</v>
       </c>
       <c r="G670" t="n">
-        <v>0</v>
+        <v>27931.1</v>
       </c>
       <c r="H670" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>0</v>
       </c>
       <c r="G671" t="n">
-        <v>0</v>
+        <v>29089.4</v>
       </c>
       <c r="H671" t="n">
         <v>0</v>
@@ -26461,13 +26461,13 @@
         <v>0</v>
       </c>
       <c r="E672" t="n">
-        <v>0</v>
+        <v>9236.1</v>
       </c>
       <c r="F672" t="n">
         <v>0</v>
       </c>
       <c r="G672" t="n">
-        <v>0</v>
+        <v>37642</v>
       </c>
       <c r="H672" t="n">
         <v>0</v>
@@ -26502,7 +26502,7 @@
         <v>0</v>
       </c>
       <c r="G673" t="n">
-        <v>0</v>
+        <v>104320.9</v>
       </c>
       <c r="H673" t="n">
         <v>0</v>
@@ -26537,7 +26537,7 @@
         <v>0</v>
       </c>
       <c r="G674" t="n">
-        <v>0</v>
+        <v>61419.5</v>
       </c>
       <c r="H674" t="n">
         <v>0</v>
@@ -26572,7 +26572,7 @@
         <v>0</v>
       </c>
       <c r="G675" t="n">
-        <v>0</v>
+        <v>57627.1</v>
       </c>
       <c r="H675" t="n">
         <v>0</v>
@@ -26607,7 +26607,7 @@
         <v>0</v>
       </c>
       <c r="G676" t="n">
-        <v>0</v>
+        <v>53805.7</v>
       </c>
       <c r="H676" t="n">
         <v>0</v>
@@ -26642,7 +26642,7 @@
         <v>0</v>
       </c>
       <c r="G677" t="n">
-        <v>0</v>
+        <v>131906.7</v>
       </c>
       <c r="H677" t="n">
         <v>0</v>
@@ -26677,7 +26677,7 @@
         <v>0</v>
       </c>
       <c r="G678" t="n">
-        <v>0</v>
+        <v>53590.8</v>
       </c>
       <c r="H678" t="n">
         <v>0</v>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="G679" t="n">
-        <v>0</v>
+        <v>79873.1</v>
       </c>
       <c r="H679" t="n">
         <v>0</v>
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="F680" t="n">
-        <v>0</v>
+        <v>1691.7</v>
       </c>
       <c r="G680" t="n">
-        <v>0</v>
+        <v>89647</v>
       </c>
       <c r="H680" t="n">
         <v>0</v>
@@ -26773,16 +26773,16 @@
         <v>727</v>
       </c>
       <c r="D681" t="n">
-        <v>0</v>
+        <v>5057.7</v>
       </c>
       <c r="E681" t="n">
-        <v>0</v>
+        <v>10399.4</v>
       </c>
       <c r="F681" t="n">
         <v>0</v>
       </c>
       <c r="G681" t="n">
-        <v>0</v>
+        <v>46222.4</v>
       </c>
       <c r="H681" t="n">
         <v>20.906</v>
@@ -26817,7 +26817,7 @@
         <v>0</v>
       </c>
       <c r="G682" t="n">
-        <v>0</v>
+        <v>124302.8</v>
       </c>
       <c r="H682" t="n">
         <v>0</v>
@@ -26852,7 +26852,7 @@
         <v>0</v>
       </c>
       <c r="G683" t="n">
-        <v>0</v>
+        <v>141489</v>
       </c>
       <c r="H683" t="n">
         <v>0</v>
@@ -26878,7 +26878,7 @@
         <v>731</v>
       </c>
       <c r="D684" t="n">
-        <v>0</v>
+        <v>25065.3</v>
       </c>
       <c r="E684" t="n">
         <v>0</v>
@@ -26913,7 +26913,7 @@
         <v>732</v>
       </c>
       <c r="D685" t="n">
-        <v>0</v>
+        <v>29130.4</v>
       </c>
       <c r="E685" t="n">
         <v>0</v>
@@ -26948,7 +26948,7 @@
         <v>733</v>
       </c>
       <c r="D686" t="n">
-        <v>0</v>
+        <v>17050.4</v>
       </c>
       <c r="E686" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="F687" t="n">
-        <v>0</v>
+        <v>1283.4</v>
       </c>
       <c r="G687" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="F688" t="n">
-        <v>0</v>
+        <v>3384.7</v>
       </c>
       <c r="G688" t="n">
         <v>0</v>
@@ -27059,7 +27059,7 @@
         <v>0</v>
       </c>
       <c r="F689" t="n">
-        <v>0</v>
+        <v>2085.1</v>
       </c>
       <c r="G689" t="n">
         <v>0</v>
@@ -27088,13 +27088,13 @@
         <v>737</v>
       </c>
       <c r="D690" t="n">
-        <v>0</v>
+        <v>1278</v>
       </c>
       <c r="E690" t="n">
         <v>0</v>
       </c>
       <c r="F690" t="n">
-        <v>0</v>
+        <v>1028.6</v>
       </c>
       <c r="G690" t="n">
         <v>0</v>
@@ -27123,13 +27123,13 @@
         <v>738</v>
       </c>
       <c r="D691" t="n">
-        <v>0</v>
+        <v>940.7</v>
       </c>
       <c r="E691" t="n">
         <v>0</v>
       </c>
       <c r="F691" t="n">
-        <v>0</v>
+        <v>8094.7</v>
       </c>
       <c r="G691" t="n">
         <v>0</v>
@@ -27158,7 +27158,7 @@
         <v>739</v>
       </c>
       <c r="D692" t="n">
-        <v>0</v>
+        <v>5300.1</v>
       </c>
       <c r="E692" t="n">
         <v>0</v>
@@ -27193,7 +27193,7 @@
         <v>740</v>
       </c>
       <c r="D693" t="n">
-        <v>0</v>
+        <v>47234.3</v>
       </c>
       <c r="E693" t="n">
         <v>0</v>
@@ -27228,7 +27228,7 @@
         <v>741</v>
       </c>
       <c r="D694" t="n">
-        <v>0</v>
+        <v>44122.1</v>
       </c>
       <c r="E694" t="n">
         <v>0</v>
@@ -27269,7 +27269,7 @@
         <v>0</v>
       </c>
       <c r="F695" t="n">
-        <v>0</v>
+        <v>2173.3</v>
       </c>
       <c r="G695" t="n">
         <v>0</v>
@@ -27298,7 +27298,7 @@
         <v>743</v>
       </c>
       <c r="D696" t="n">
-        <v>0</v>
+        <v>39664.7</v>
       </c>
       <c r="E696" t="n">
         <v>0</v>
@@ -27333,13 +27333,13 @@
         <v>744</v>
       </c>
       <c r="D697" t="n">
-        <v>0</v>
+        <v>2654.8</v>
       </c>
       <c r="E697" t="n">
         <v>0</v>
       </c>
       <c r="F697" t="n">
-        <v>0</v>
+        <v>18971.1</v>
       </c>
       <c r="G697" t="n">
         <v>0</v>
@@ -27368,13 +27368,13 @@
         <v>745</v>
       </c>
       <c r="D698" t="n">
-        <v>0</v>
+        <v>11870.2</v>
       </c>
       <c r="E698" t="n">
         <v>0</v>
       </c>
       <c r="F698" t="n">
-        <v>0</v>
+        <v>6022</v>
       </c>
       <c r="G698" t="n">
         <v>0</v>
@@ -27403,13 +27403,13 @@
         <v>746</v>
       </c>
       <c r="D699" t="n">
-        <v>0</v>
+        <v>40766.8</v>
       </c>
       <c r="E699" t="n">
         <v>0</v>
       </c>
       <c r="F699" t="n">
-        <v>0</v>
+        <v>5022.7</v>
       </c>
       <c r="G699" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="F700" t="n">
-        <v>0</v>
+        <v>1842.8</v>
       </c>
       <c r="G700" t="n">
         <v>0</v>
@@ -27473,13 +27473,13 @@
         <v>748</v>
       </c>
       <c r="D701" t="n">
-        <v>0</v>
+        <v>6397.2</v>
       </c>
       <c r="E701" t="n">
         <v>0</v>
       </c>
       <c r="F701" t="n">
-        <v>0</v>
+        <v>2153.5</v>
       </c>
       <c r="G701" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>749</v>
       </c>
       <c r="D702" t="n">
-        <v>0</v>
+        <v>17183.7</v>
       </c>
       <c r="E702" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="F703" t="n">
-        <v>0</v>
+        <v>4279.5</v>
       </c>
       <c r="G703" t="n">
         <v>0</v>
@@ -27578,13 +27578,13 @@
         <v>751</v>
       </c>
       <c r="D704" t="n">
-        <v>0</v>
+        <v>7488.1</v>
       </c>
       <c r="E704" t="n">
         <v>0</v>
       </c>
       <c r="F704" t="n">
-        <v>0</v>
+        <v>4704.6</v>
       </c>
       <c r="G704" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         <v>752</v>
       </c>
       <c r="D705" t="n">
-        <v>0</v>
+        <v>3523.1</v>
       </c>
       <c r="E705" t="n">
         <v>0</v>
       </c>
       <c r="F705" t="n">
-        <v>0</v>
+        <v>2239.8</v>
       </c>
       <c r="G705" t="n">
         <v>0</v>
@@ -27654,7 +27654,7 @@
         <v>0</v>
       </c>
       <c r="F706" t="n">
-        <v>0</v>
+        <v>2942.4</v>
       </c>
       <c r="G706" t="n">
         <v>0</v>
@@ -27692,7 +27692,7 @@
         <v>0</v>
       </c>
       <c r="G707" t="n">
-        <v>0</v>
+        <v>37273.7</v>
       </c>
       <c r="H707" t="n">
         <v>0</v>
@@ -27727,7 +27727,7 @@
         <v>0</v>
       </c>
       <c r="G708" t="n">
-        <v>0</v>
+        <v>52485.6</v>
       </c>
       <c r="H708" t="n">
         <v>0</v>
@@ -27762,7 +27762,7 @@
         <v>0</v>
       </c>
       <c r="G709" t="n">
-        <v>0</v>
+        <v>64133.2</v>
       </c>
       <c r="H709" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>0</v>
       </c>
       <c r="F710" t="n">
-        <v>0</v>
+        <v>13237.2</v>
       </c>
       <c r="G710" t="n">
-        <v>0</v>
+        <v>79926</v>
       </c>
       <c r="H710" t="n">
         <v>0</v>
@@ -27832,7 +27832,7 @@
         <v>0</v>
       </c>
       <c r="G711" t="n">
-        <v>0</v>
+        <v>66250.3</v>
       </c>
       <c r="H711" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G712" t="n">
-        <v>0</v>
+        <v>123520.6</v>
       </c>
       <c r="H712" t="n">
         <v>0</v>
@@ -27902,7 +27902,7 @@
         <v>0</v>
       </c>
       <c r="G713" t="n">
-        <v>0</v>
+        <v>82600.7</v>
       </c>
       <c r="H713" t="n">
         <v>0</v>
@@ -27937,7 +27937,7 @@
         <v>0</v>
       </c>
       <c r="G714" t="n">
-        <v>0</v>
+        <v>90079.1</v>
       </c>
       <c r="H714" t="n">
         <v>0</v>
@@ -27972,7 +27972,7 @@
         <v>0</v>
       </c>
       <c r="G715" t="n">
-        <v>0</v>
+        <v>101467.4</v>
       </c>
       <c r="H715" t="n">
         <v>0</v>
@@ -28007,7 +28007,7 @@
         <v>0</v>
       </c>
       <c r="G716" t="n">
-        <v>0</v>
+        <v>94744.1</v>
       </c>
       <c r="H716" t="n">
         <v>0</v>
@@ -28042,7 +28042,7 @@
         <v>0</v>
       </c>
       <c r="G717" t="n">
-        <v>0</v>
+        <v>57855.6</v>
       </c>
       <c r="H717" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="G718" t="n">
-        <v>0</v>
+        <v>91584</v>
       </c>
       <c r="H718" t="n">
         <v>0</v>
@@ -28112,7 +28112,7 @@
         <v>0</v>
       </c>
       <c r="G719" t="n">
-        <v>0</v>
+        <v>126604.9</v>
       </c>
       <c r="H719" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="G720" t="n">
-        <v>0</v>
+        <v>66797.4</v>
       </c>
       <c r="H720" t="n">
         <v>0</v>
@@ -28182,7 +28182,7 @@
         <v>0</v>
       </c>
       <c r="G721" t="n">
-        <v>0</v>
+        <v>42980.9</v>
       </c>
       <c r="H721" t="n">
         <v>0</v>
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="G722" t="n">
-        <v>0</v>
+        <v>4910</v>
       </c>
       <c r="H722" t="n">
         <v>0</v>
@@ -28252,7 +28252,7 @@
         <v>0</v>
       </c>
       <c r="G723" t="n">
-        <v>0</v>
+        <v>4850.2</v>
       </c>
       <c r="H723" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="G724" t="n">
-        <v>0</v>
+        <v>94738</v>
       </c>
       <c r="H724" t="n">
         <v>0</v>
@@ -28319,10 +28319,10 @@
         <v>0</v>
       </c>
       <c r="F725" t="n">
-        <v>0</v>
+        <v>21067.9</v>
       </c>
       <c r="G725" t="n">
-        <v>0</v>
+        <v>80427.1</v>
       </c>
       <c r="H725" t="n">
         <v>0</v>
@@ -28357,7 +28357,7 @@
         <v>0</v>
       </c>
       <c r="G726" t="n">
-        <v>0</v>
+        <v>57311.6</v>
       </c>
       <c r="H726" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="G727" t="n">
-        <v>0</v>
+        <v>38655.6</v>
       </c>
       <c r="H727" t="n">
         <v>0</v>
@@ -28427,7 +28427,7 @@
         <v>0</v>
       </c>
       <c r="G728" t="n">
-        <v>0</v>
+        <v>51699.6</v>
       </c>
       <c r="H728" t="n">
         <v>0</v>
@@ -28462,7 +28462,7 @@
         <v>0</v>
       </c>
       <c r="G729" t="n">
-        <v>0</v>
+        <v>45478.4</v>
       </c>
       <c r="H729" t="n">
         <v>0</v>
@@ -28488,16 +28488,16 @@
         <v>779</v>
       </c>
       <c r="D730" t="n">
-        <v>0</v>
+        <v>1907.4</v>
       </c>
       <c r="E730" t="n">
-        <v>0</v>
+        <v>1423.9</v>
       </c>
       <c r="F730" t="n">
-        <v>0</v>
+        <v>9019.3</v>
       </c>
       <c r="G730" t="n">
-        <v>0</v>
+        <v>100821.8</v>
       </c>
       <c r="H730" t="n">
         <v>1.549</v>
@@ -28523,16 +28523,16 @@
         <v>780</v>
       </c>
       <c r="D731" t="n">
-        <v>0</v>
+        <v>2271.7</v>
       </c>
       <c r="E731" t="n">
         <v>0</v>
       </c>
       <c r="F731" t="n">
-        <v>0</v>
+        <v>61353.3</v>
       </c>
       <c r="G731" t="n">
-        <v>0</v>
+        <v>91611.5</v>
       </c>
       <c r="H731" t="n">
         <v>1.975</v>
@@ -28558,16 +28558,16 @@
         <v>781</v>
       </c>
       <c r="D732" t="n">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="E732" t="n">
         <v>0</v>
       </c>
       <c r="F732" t="n">
-        <v>0</v>
+        <v>22389.7</v>
       </c>
       <c r="G732" t="n">
-        <v>0</v>
+        <v>92544.2</v>
       </c>
       <c r="H732" t="n">
         <v>0</v>
@@ -28593,16 +28593,16 @@
         <v>782</v>
       </c>
       <c r="D733" t="n">
-        <v>0</v>
+        <v>1419.3</v>
       </c>
       <c r="E733" t="n">
         <v>0</v>
       </c>
       <c r="F733" t="n">
-        <v>0</v>
+        <v>38444.6</v>
       </c>
       <c r="G733" t="n">
-        <v>0</v>
+        <v>2284.6</v>
       </c>
       <c r="H733" t="n">
         <v>2.751</v>
@@ -28637,7 +28637,7 @@
         <v>0</v>
       </c>
       <c r="G734" t="n">
-        <v>0</v>
+        <v>238620.4</v>
       </c>
       <c r="H734" t="n">
         <v>0</v>
@@ -28672,7 +28672,7 @@
         <v>0</v>
       </c>
       <c r="G735" t="n">
-        <v>0</v>
+        <v>106329.6</v>
       </c>
       <c r="H735" t="n">
         <v>0</v>
@@ -28707,7 +28707,7 @@
         <v>0</v>
       </c>
       <c r="G736" t="n">
-        <v>0</v>
+        <v>17237.6</v>
       </c>
       <c r="H736" t="n">
         <v>0</v>
@@ -28742,7 +28742,7 @@
         <v>0</v>
       </c>
       <c r="G737" t="n">
-        <v>0</v>
+        <v>206586.1</v>
       </c>
       <c r="H737" t="n">
         <v>0</v>
@@ -28768,13 +28768,13 @@
         <v>787</v>
       </c>
       <c r="D738" t="n">
-        <v>0</v>
+        <v>5826.5</v>
       </c>
       <c r="E738" t="n">
         <v>0</v>
       </c>
       <c r="F738" t="n">
-        <v>0</v>
+        <v>24899.9</v>
       </c>
       <c r="G738" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="G739" t="n">
-        <v>0</v>
+        <v>90178.4</v>
       </c>
       <c r="H739" t="n">
         <v>0</v>
@@ -28838,13 +28838,13 @@
         <v>789</v>
       </c>
       <c r="D740" t="n">
-        <v>0</v>
+        <v>17899.8</v>
       </c>
       <c r="E740" t="n">
         <v>0</v>
       </c>
       <c r="F740" t="n">
-        <v>0</v>
+        <v>62382.4</v>
       </c>
       <c r="G740" t="n">
         <v>0</v>
@@ -28879,10 +28879,10 @@
         <v>0</v>
       </c>
       <c r="F741" t="n">
-        <v>0</v>
+        <v>50028.7</v>
       </c>
       <c r="G741" t="n">
-        <v>0</v>
+        <v>17738.3</v>
       </c>
       <c r="H741" t="n">
         <v>0</v>
@@ -28908,13 +28908,13 @@
         <v>791</v>
       </c>
       <c r="D742" t="n">
-        <v>0</v>
+        <v>3069</v>
       </c>
       <c r="E742" t="n">
         <v>0</v>
       </c>
       <c r="F742" t="n">
-        <v>0</v>
+        <v>53498.5</v>
       </c>
       <c r="G742" t="n">
         <v>0</v>
@@ -28952,7 +28952,7 @@
         <v>0</v>
       </c>
       <c r="G743" t="n">
-        <v>0</v>
+        <v>184981.1</v>
       </c>
       <c r="H743" t="n">
         <v>0</v>
@@ -28978,16 +28978,16 @@
         <v>793</v>
       </c>
       <c r="D744" t="n">
-        <v>0</v>
+        <v>1907.4</v>
       </c>
       <c r="E744" t="n">
         <v>0</v>
       </c>
       <c r="F744" t="n">
-        <v>0</v>
+        <v>2634.6</v>
       </c>
       <c r="G744" t="n">
-        <v>0</v>
+        <v>94958.1</v>
       </c>
       <c r="H744" t="n">
         <v>0</v>
@@ -29019,10 +29019,10 @@
         <v>0</v>
       </c>
       <c r="F745" t="n">
-        <v>0</v>
+        <v>2634.6</v>
       </c>
       <c r="G745" t="n">
-        <v>0</v>
+        <v>52910.1</v>
       </c>
       <c r="H745" t="n">
         <v>0</v>
@@ -29057,7 +29057,7 @@
         <v>0</v>
       </c>
       <c r="G746" t="n">
-        <v>0</v>
+        <v>37844.5</v>
       </c>
       <c r="H746" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="G747" t="n">
-        <v>0</v>
+        <v>28310.2</v>
       </c>
       <c r="H747" t="n">
         <v>0</v>
@@ -29127,7 +29127,7 @@
         <v>0</v>
       </c>
       <c r="G748" t="n">
-        <v>0</v>
+        <v>104746</v>
       </c>
       <c r="H748" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="G749" t="n">
-        <v>0</v>
+        <v>120327.1</v>
       </c>
       <c r="H749" t="n">
         <v>0</v>
@@ -29197,7 +29197,7 @@
         <v>0</v>
       </c>
       <c r="G750" t="n">
-        <v>0</v>
+        <v>225403</v>
       </c>
       <c r="H750" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="G751" t="n">
-        <v>0</v>
+        <v>11823.9</v>
       </c>
       <c r="H751" t="n">
         <v>0</v>
@@ -29267,7 +29267,7 @@
         <v>0</v>
       </c>
       <c r="G752" t="n">
-        <v>0</v>
+        <v>156210.5</v>
       </c>
       <c r="H752" t="n">
         <v>0</v>
@@ -29302,7 +29302,7 @@
         <v>0</v>
       </c>
       <c r="G753" t="n">
-        <v>0</v>
+        <v>127429.8</v>
       </c>
       <c r="H753" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="G754" t="n">
-        <v>0</v>
+        <v>160168.5</v>
       </c>
       <c r="H754" t="n">
         <v>0</v>
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="G755" t="n">
-        <v>0</v>
+        <v>31954.8</v>
       </c>
       <c r="H755" t="n">
         <v>0</v>
@@ -29407,7 +29407,7 @@
         <v>0</v>
       </c>
       <c r="G756" t="n">
-        <v>0</v>
+        <v>44720</v>
       </c>
       <c r="H756" t="n">
         <v>0</v>
@@ -29442,7 +29442,7 @@
         <v>0</v>
       </c>
       <c r="G757" t="n">
-        <v>0</v>
+        <v>110451.4</v>
       </c>
       <c r="H757" t="n">
         <v>0</v>
@@ -29477,7 +29477,7 @@
         <v>0</v>
       </c>
       <c r="G758" t="n">
-        <v>0</v>
+        <v>14553.9</v>
       </c>
       <c r="H758" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="G759" t="n">
-        <v>0</v>
+        <v>44222.5</v>
       </c>
       <c r="H759" t="n">
         <v>0</v>
@@ -29547,7 +29547,7 @@
         <v>0</v>
       </c>
       <c r="G760" t="n">
-        <v>0</v>
+        <v>70660.6</v>
       </c>
       <c r="H760" t="n">
         <v>0</v>
@@ -29582,7 +29582,7 @@
         <v>0</v>
       </c>
       <c r="G761" t="n">
-        <v>0</v>
+        <v>29616.8</v>
       </c>
       <c r="H761" t="n">
         <v>0</v>
@@ -29617,7 +29617,7 @@
         <v>0</v>
       </c>
       <c r="G762" t="n">
-        <v>0</v>
+        <v>51333</v>
       </c>
       <c r="H762" t="n">
         <v>0</v>
@@ -29652,7 +29652,7 @@
         <v>0</v>
       </c>
       <c r="G763" t="n">
-        <v>0</v>
+        <v>102854.3</v>
       </c>
       <c r="H763" t="n">
         <v>0</v>
@@ -29687,7 +29687,7 @@
         <v>0</v>
       </c>
       <c r="G764" t="n">
-        <v>0</v>
+        <v>105316.4</v>
       </c>
       <c r="H764" t="n">
         <v>0</v>
@@ -29722,7 +29722,7 @@
         <v>0</v>
       </c>
       <c r="G765" t="n">
-        <v>0</v>
+        <v>91222.2</v>
       </c>
       <c r="H765" t="n">
         <v>0</v>
@@ -29757,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="G766" t="n">
-        <v>0</v>
+        <v>103249.1</v>
       </c>
       <c r="H766" t="n">
         <v>0</v>
@@ -29792,7 +29792,7 @@
         <v>0</v>
       </c>
       <c r="G767" t="n">
-        <v>0</v>
+        <v>123849.1</v>
       </c>
       <c r="H767" t="n">
         <v>0</v>
@@ -29827,7 +29827,7 @@
         <v>0</v>
       </c>
       <c r="G768" t="n">
-        <v>0</v>
+        <v>106849.7</v>
       </c>
       <c r="H768" t="n">
         <v>0</v>
@@ -29862,7 +29862,7 @@
         <v>0</v>
       </c>
       <c r="G769" t="n">
-        <v>0</v>
+        <v>238098.5</v>
       </c>
       <c r="H769" t="n">
         <v>0</v>
@@ -29897,7 +29897,7 @@
         <v>0</v>
       </c>
       <c r="G770" t="n">
-        <v>0</v>
+        <v>81952.5</v>
       </c>
       <c r="H770" t="n">
         <v>0</v>
@@ -29932,7 +29932,7 @@
         <v>0</v>
       </c>
       <c r="G771" t="n">
-        <v>0</v>
+        <v>102337.4</v>
       </c>
       <c r="H771" t="n">
         <v>0</v>
@@ -29967,7 +29967,7 @@
         <v>0</v>
       </c>
       <c r="G772" t="n">
-        <v>0</v>
+        <v>292054.6</v>
       </c>
       <c r="H772" t="n">
         <v>0</v>
@@ -30002,7 +30002,7 @@
         <v>0</v>
       </c>
       <c r="G773" t="n">
-        <v>0</v>
+        <v>47854.7</v>
       </c>
       <c r="H773" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="G774" t="n">
-        <v>0</v>
+        <v>67165.4</v>
       </c>
       <c r="H774" t="n">
         <v>0</v>
@@ -30072,7 +30072,7 @@
         <v>0</v>
       </c>
       <c r="G775" t="n">
-        <v>0</v>
+        <v>118708.1</v>
       </c>
       <c r="H775" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="G776" t="n">
-        <v>0</v>
+        <v>187824.5</v>
       </c>
       <c r="H776" t="n">
         <v>0</v>
